--- a/data_output_ipynb/output_llm_change_analysis_v2.xlsx
+++ b/data_output_ipynb/output_llm_change_analysis_v2.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oussa/Desktop/Github_perso/3 - Legal FR Tracker/data_output_ipynb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB1873C-0334-E341-8261-5A1DA198AF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -325,292 +319,293 @@
     <t>OK change</t>
   </si>
   <si>
+    <t>L'analyse des modifications apportées à l'article révèle plusieurs changements significatifs :
+1. **Suppression de certaines obligations spécifiques** : La nouvelle version de l'article a supprimé plusieurs obligations détaillées qui étaient imposées aux prestataires de services, notamment celles relatives à la sécurité et au contrôle interne, à la gestion des conflits d'intérêts, à la résilience et à la sécurité des systèmes informatiques, ainsi qu'à la politique de conservation et de restitution des actifs numériques. Ces obligations étaient énumérées dans les points 5° et 6° de l'ancienne version.
+2. **Réduction des vérifications par l'AMF** : La nouvelle version a également supprimé la disposition selon laquelle l'Autorité des marchés financiers (AMF) vérifie la sécurité des systèmes d'information des prestataires enregistrés et peut solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
+3. **Simplification des conditions de conformité** : La nouvelle version a simplifié les conditions de conformité pour les prestataires enregistrés ou immatriculés dans un autre État membre de l'Union européenne ou partie à l'accord sur l'Espace économique européen, en supprimant la mention des conditions spécifiques aux 1° et 2° de l'article.
+4. **Clarification des procédures de radiation** : Les conditions de radiation des prestataires par l'AMF ont été maintenues, mais la nouvelle version a supprimé la mention de la possibilité de radiation pour non-respect des obligations ou obtention de l'enregistrement par des moyens irréguliers.
+5. **Suppression de la publication des politiques tarifaires et de gestion des réclamations** : L'obligation pour les prestataires de rendre publiques leurs politiques tarifaires et d'établir une politique de gestion des réclamations a été supprimée.
+6. **Suppression de la suspension d'enregistrement en cas de menace pour la stabilité du marché** : La disposition permettant à l'AMF de suspendre l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques a été supprimée.
+En résumé, la nouvelle version de l'article simplifie et réduit les obligations et les vérifications imposées aux prestataires de services, tout en maintenant les exigences de base en matière d'enregistrement et de conformité. Les modifications semblent viser à alléger la charge réglementaire pour les prestataires tout en conservant les éléments essentiels de surveillance par l'AMF.</t>
+  </si>
+  <si>
+    <t>L'analyse des modifications apportées à l'article révèle plusieurs changements significatifs :
+1. **Suppression de la référence au règlement (UE) 2023/1114** : La nouvelle version de l'article ne fait plus mention du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cela signifie que les exigences spécifiques de ce règlement ne sont plus intégrées dans cet article. La réglementation se recentre donc exclusivement sur les dispositions nationales, en particulier celles de l'article L. 54-10-2.
+2. **Réduction du champ d'application** : La nouvelle version de l'article se limite aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, sans inclure les services sur crypto-actifs au sens du règlement européen. Cela pourrait indiquer une volonté de simplifier ou de clarifier les obligations pour les prestataires de services en crypto-actifs en se concentrant uniquement sur la législation nationale.
+3. **Modification des interdictions de dénomination** : La nouvelle version précise que l'interdiction d'utiliser une dénomination, une raison sociale, une publicité ou tout autre procédé laissant croire à un enregistrement ou une autorisation s'applique spécifiquement aux prestataires des services mentionnés aux mêmes 1° et 4°. Cette précision semble restreindre l'interdiction à un sous-ensemble plus spécifique de services, contrairement à l'ancienne version qui s'appliquait de manière plus générale à tous les prestataires non enregistrés ou non autorisés.
+En résumé, les modifications apportées à l'article semblent viser à simplifier et à clarifier les obligations des prestataires de services en crypto-actifs en se concentrant sur la législation nationale et en restreignant certaines interdictions à des services spécifiques.</t>
+  </si>
+  <si>
     <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
-1. **Suppression de certaines exigences** : La nouvelle version de l'article a supprimé plusieurs exigences spécifiques qui étaient présentes dans l'ancienne version. Notamment, les obligations détaillées concernant les dispositifs de sécurité, de contrôle interne, de gestion des conflits d'intérêts, et de systèmes informatiques résilients et sécurisés ont été omises. De même, les obligations spécifiques pour les prestataires fournissant le service mentionné au 1° de l'article L. 54-10-2, telles que la conclusion de conventions avec les clients, l'établissement d'une politique de conservation, et la ségrégation des détentions, ont été retirées.
-2. **Simplification des obligations de conformité** : La nouvelle version simplifie les obligations de conformité en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme. Elle maintient les exigences de mise en place d'une organisation et de procédures propres à assurer le respect des obligations prévues par les articles pertinents, mais sans les détails supplémentaires présents dans l'ancienne version.
-3. **Clarification des conditions de radiation** : Les conditions dans lesquelles l'Autorité des marchés financiers (AMF) peut radier un prestataire ont été maintenues, mais la nouvelle version semble les présenter de manière plus concise.
-4. **Maintien des obligations de déclaration** : L'obligation pour les prestataires de déclarer toute modification affectant le respect de leurs obligations à l'AMF est maintenue dans la nouvelle version.
-5. **Suppression de la suspension d'enregistrement** : La possibilité pour l'AMF de suspendre d'office l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques a été supprimée dans la nouvelle version.
-6. **Maintien de la publication de la liste des prestataires** : La nouvelle version maintient l'obligation pour l'AMF de publier la liste des prestataires enregistrés.
-En résumé, la nouvelle version de l'article simplifie et allège certaines des exigences réglementaires imposées aux prestataires de services, tout en maintenant les obligations essentielles de conformité et de déclaration. Les modifications semblent viser à réduire la complexité administrative et à clarifier les conditions de radiation, tout en supprimant certaines obligations spécifiques et la possibilité de suspension d'enregistrement par l'AMF.</t>
-  </si>
-  <si>
-    <t>L'analyse des modifications apportées à cet article révèle plusieurs changements significatifs :
-1. **Suppression de la référence au règlement (UE) 2023/1114** : La nouvelle version de l'article ne fait plus mention du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cela pourrait indiquer une volonté de simplifier le texte en supprimant les références spécifiques à la législation européenne, ou une réorientation vers une réglementation plus nationale.
-2. **Restriction des services concernés** : La nouvelle version de l'article limite l'interdiction d'utiliser une dénomination, une raison sociale, une publicité ou tout autre procédé laissant croire à un enregistrement ou une autorisation aux seuls services mentionnés aux 1° et 4° de l'article L. 54-10-2. L'ancienne version s'appliquait à tous les services mentionnés aux 1° à 4° de cet article. Cela restreint donc le champ d'application de cette interdiction.
-3. **Clarification de l'enregistrement préalable** : La nouvelle version maintient l'exigence d'un enregistrement préalable par l'Autorité des marchés financiers pour l'exercice de la profession de prestataire des services mentionnés aux 1° à 4° de l'article L. 54-10-2, mais elle ne mentionne plus l'autorisation de fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114. Cela pourrait simplifier les exigences pour les prestataires de services en crypto-actifs en se concentrant uniquement sur l'enregistrement national.
-En résumé, les modifications apportées à cet article semblent viser à simplifier et à clarifier les exigences réglementaires pour les prestataires de services en crypto-actifs, en supprimant les références spécifiques à la législation européenne et en restreignant le champ d'application de certaines interdictions.</t>
-  </si>
-  <si>
-    <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
-1. **Autorité de vérification des systèmes d'information** :
-   - Ancienne version : L'Autorité des marchés financiers (AMF) pouvait solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
-   - Nouvelle version : L'AMF peut solliciter l'avis de l'autorité nationale en charge de la sécurité des systèmes d'information. Ce changement clarifie et potentiellement élargit l'autorité compétente pour la sécurité des systèmes d'information.
+1. **Références à l'autorité nationale en charge de la sécurité des systèmes d'information** :
+   - L'ancienne version mentionnait spécifiquement l'article L. 2321-1 du code de la défense pour solliciter l'avis sur la sécurité des systèmes d'information. La nouvelle version généralise cette référence en parlant de l'autorité nationale en charge de la sécurité des systèmes d'information. Cela peut indiquer une volonté de simplification ou d'adaptation à des changements organisationnels.
 2. **Seuil de détention de capital ou de droits de vote** :
-   - Ancienne version : Les personnes physiques détenant plus de 10 % du capital ou des droits de vote du prestataire devaient justifier de leur honorabilité et compétence.
-   - Nouvelle version : Ce seuil est porté à plus de 25 %. Cela signifie que les exigences de justification d'honorabilité et de compétence s'appliquent désormais à un nombre plus restreint de détenteurs de capital ou de droits de vote, ce qui pourrait alléger les obligations de certains investisseurs.
-3. **Terminologie et précision** :
-   - Quelques ajustements mineurs de terminologie ont été effectués pour améliorer la clarté et la précision du texte, comme le remplacement de "l'autorité mentionnée à l'article L. 2321-1 du code de la défense" par "l'autorité nationale en charge de la sécurité des systèmes d'information".
-4. **Structure et cohérence** :
-   - Les deux versions conservent la même structure générale et les mêmes obligations principales pour les prestataires agréés, ce qui indique une continuité dans les exigences réglementaires de base.
-En conclusion, les modifications apportées à l'article visent principalement à clarifier certaines dispositions, à ajuster les seuils de contrôle pour les détenteurs de capital, et à préciser les autorités compétentes pour la vérification des systèmes d'information. Ces changements peuvent avoir des implications pratiques pour les prestataires de services sur actifs numériques, notamment en termes de conformité et de gouvernance.</t>
-  </si>
-  <si>
-    <t>L'analyse des modifications apportées à cet article révèle un changement dans la portée des personnes concernées par l'interdiction de tenir des comptes ou des livrets d'épargne anonymes. 
+   - Le seuil de détention de capital ou de droits de vote par des personnes physiques exerçant un pouvoir de contrôle sur le prestataire passe de 10 % à 25 %. Cette modification pourrait viser à réduire les contraintes administratives pour les prestataires en limitant les obligations de justification d'honorabilité et de compétence à des actionnaires plus significatifs.
+3. **Clarification et précision des termes** :
+   - Quelques ajustements mineurs de formulation ont été effectués pour améliorer la clarté et la précision du texte, comme l'ajout de "en assurent un traitement rapide" pour la gestion des réclamations des clients.
+4. **Suppression de références spécifiques** :
+   - La nouvelle version a supprimé certaines références spécifiques, comme les articles L. 561-4-1 à L. 561-5-1, L. 561-10-2 et L. 561-15, en les remplaçant par une référence plus générale aux obligations en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Cela peut viser à simplifier la lecture et l'application de l'article.
+5. **Ajustements rédactionnels** :
+   - Des ajustements rédactionnels mineurs ont été apportés pour améliorer la lisibilité et la cohérence du texte, sans modifier substantiellement le contenu des obligations.
+En conclusion, les modifications apportées à l'article visent principalement à simplifier et clarifier les obligations des prestataires, tout en ajustant certains seuils et références pour mieux s'adapter aux évolutions réglementaires et organisationnelles.</t>
+  </si>
+  <si>
+    <t>L'analyse des modifications apportées à cet article révèle un changement dans la portée des personnes concernées par l'interdiction de tenir des comptes ou livrets d'épargne anonymes. 
 Dans l'ancienne version, l'interdiction s'appliquait aux personnes mentionnées aux 1° à 7° de l'article L. 561-2. La nouvelle version étend cette interdiction aux personnes mentionnées aux 1° à 7° bis du même article. 
-Cela signifie que le champ d'application de cette interdiction a été élargi pour inclure des catégories supplémentaires de personnes ou entités, spécifiées dans le point 7° bis de l'article L. 561-2. Cette modification vise probablement à renforcer les mesures de lutte contre le blanchiment d'argent et le financement du terrorisme en incluant davantage de personnes ou d'entités sous cette interdiction.</t>
+Cela signifie que le champ d'application de cette interdiction a été élargi pour inclure des catégories supplémentaires de personnes ou entités, spécifiquement celles ajoutées sous la désignation "7° bis". Cette modification vise probablement à renforcer les mesures de lutte contre le blanchiment d'argent et le financement du terrorisme en incluant davantage de personnes ou entités sous cette interdiction.</t>
   </si>
   <si>
     <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
 1. **Extension des entités concernées** :
-   - L'ancienne version de l'article mentionnait les personnes énumérées aux 1° à 7° de l'article L. 561-2, ainsi que diverses entités financières et leurs filiales et succursales. La nouvelle version étend cette liste aux personnes mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2. Cette extension inclut donc de nouvelles catégories d'entités soumises aux obligations de déclaration.
-2. **Ajout d'un nouveau paragraphe (III)** :
-   - La nouvelle version introduit un paragraphe III, qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15 réalisées par les entités du groupe. Cette disposition est soumise à des conditions spécifiques, notamment que les entreprises mères soient établies dans un État membre de l'Union européenne, dans un État partie à l'accord sur l'Espace économique européen, ou dans un pays tiers imposant des obligations équivalentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme.
-3. **Conditions de traitement des informations** :
-   - Les conditions de traitement des informations divulguées restent globalement similaires entre les deux versions, avec des exigences de protection de la vie privée et des libertés et droits fondamentaux des personnes conformément aux articles 122 et 123 de la loi n° 78-17 du 6 janvier 1978. Cependant, la nouvelle version précise que ces conditions s'appliquent également aux informations traitées par les entreprises mères de groupes.
-4. **Clarification et précision** :
-   - La nouvelle version apporte une clarification et une précision supplémentaires sur les entités et les conditions d'échange d'informations, ce qui peut contribuer à une meilleure compréhension et application des obligations de déclaration.
-En résumé, les modifications apportées à l'article visent principalement à étendre le champ des entités concernées par les obligations de déclaration, à introduire des dispositions spécifiques pour les entreprises mères de groupes, et à clarifier les conditions de traitement des informations échangées. Ces changements renforcent le cadre réglementaire en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme.</t>
-  </si>
-  <si>
-    <t>L'analyse des modifications apportées à l'article révèle plusieurs changements significatifs :
-1. **Références législatives mises à jour** :
-   - Les articles L. 54-10-3 à L. 54-10-5, initialement régis par la loi n° 2019-486 du 22 mai 2019, sont désormais régis par l'ordonnance n° 2020-1544 du 9 décembre 2020. Cette ordonnance renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques.
-   - L'article L. 572-24 est également soumis à cette ordonnance, tandis que les articles L. 572-23, L. 572-25 et L. 572-26 restent sous la loi n° 2019-486.
-2. **Adaptations spécifiques pour la Nouvelle-Calédonie** :
-   - Pour l'application de l'article L. 54-10-3, certaines mentions spécifiques à l'Union européenne sont supprimées, ce qui indique une adaptation locale des dispositions européennes.
-   - Les références aux règlements européens dans les articles L. 54-10-3 et L. 54-10-5 sont remplacées par des références locales, spécifiquement à l'article L. 713-16.
-   - Les références au code de commerce sont remplacées par des dispositions équivalentes applicables localement, ce qui montre une volonté d'adapter les textes législatifs aux réalités locales de la Nouvelle-Calédonie.
-3. **Conversion des montants en euros en francs CFP** :
-   - Les montants en euros mentionnés dans l'article L. 572-23 sont convertis en francs CFP (1 790 000 francs CFP pour 15 000 euros et 3 580 000 francs CFP pour 30 000 euros).
-   - De même, le montant de 7 500 euros dans l'article L. 572-26 est converti en 895 000 francs CFP.
-Ces modifications montrent une volonté d'adapter les dispositions législatives françaises aux spécificités locales de la Nouvelle-Calédonie, notamment en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme, ainsi qu'une conversion des montants financiers pour correspondre à la monnaie locale.</t>
-  </si>
-  <si>
-    <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs ajustements notables :
-1. **Suppression de Références Spécifiques** :
-   - Les articles L. 561-27, L. 561-29-1 et L. 561-31-2, qui étaient mentionnés dans l'ancienne version, ne sont plus spécifiquement référencés dans la nouvelle version. Cela pourrait indiquer une révision ou une suppression de ces articles dans le contexte de leur application en Nouvelle-Calédonie.
-2. **Uniformisation des Références Législatives** :
-   - La nouvelle version simplifie les références législatives en regroupant les articles applicables sous des ordonnances spécifiques, sans détailler chaque article individuellement comme dans l'ancienne version. Par exemple, les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont tous regroupés sous l'ordonnance n° 2020-1544.
-3. **Suppression de Dispositions Spécifiques** :
-   - Le point 7° du III, qui était présent dans l'ancienne version, a été supprimé dans la nouvelle version. Cela pourrait indiquer que les dispositions spécifiques mentionnées ne sont plus nécessaires ou ont été intégrées ailleurs.
-4. **Clarification et Simplification** :
-   - La nouvelle version semble viser une simplification et une clarification des textes en supprimant certaines redondances et en consolidant les références législatives. Par exemple, les références aux recommandations de la Commission européenne et aux règlements européens sont systématiquement remplacées par des termes plus généraux ou supprimées.
-5. **Adaptation Locale** :
-   - Les adaptations locales restent largement similaires, mais la nouvelle version semble avoir supprimé certaines références spécifiques aux règlements européens, ce qui pourrait indiquer une volonté de rendre le texte plus autonome par rapport aux régulations européennes.
-6. **Maintien des Principes Fondamentaux** :
-   - Les principes fondamentaux de lutte contre le financement du terrorisme et le blanchiment des capitaux restent inchangés, avec une continuité dans l'application des chapitres II et III du titre VI du livre V et du chapitre IV du titre VII du même livre V en Nouvelle-Calédonie.
-En résumé, la nouvelle version de l'article vise à simplifier et clarifier les dispositions applicables en Nouvelle-Calédonie, tout en maintenant les principes fondamentaux de lutte contre le financement du terrorisme et le blanchiment des capitaux. Les références spécifiques aux ordonnances et la suppression de certaines dispositions redondantes ou spécifiques aux règlements européens sont les principaux changements observés.</t>
-  </si>
-  <si>
-    <t>L'analyse des modifications apportées à l'article révèle plusieurs ajustements notables :
-1. **Références législatives et réglementaires** :
-   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui uniformise la référence à cette ordonnance pour ces articles.
-   - Les références spécifiques à la loi n° 2021-1308 du 8 octobre 2021 et à l'ordonnance n° 2021-958 du 19 juillet 2021 ont été supprimées, simplifiant ainsi la rédaction.
-2. **Suppression de dispositions spécifiques** :
-   - Le point 7° du III, qui faisait référence à des dispositions spécifiques, a été supprimé. Cela pourrait indiquer une simplification ou une suppression de la nécessité de cette disposition particulière.
-3. **Clarifications et simplifications** :
-   - Plusieurs références aux règlements européens et aux traités de l'Union européenne ont été supprimées ou remplacées par des termes plus généraux, ce qui pourrait viser à simplifier l'application locale des dispositions.
-   - Les adaptations spécifiques pour la Polynésie française concernant les références aux autorités locales et aux valeurs monétaires en francs CFP restent inchangées, assurant ainsi la pertinence locale des dispositions.
-4. **Harmonisation des termes** :
-   - Les termes et références ont été harmonisés pour assurer une cohérence dans l'application des articles en Polynésie française, notamment en ce qui concerne les autorités locales compétentes et les valeurs monétaires.
-En conclusion, les modifications apportées visent principalement à simplifier et à harmoniser les références législatives et réglementaires, tout en maintenant les adaptations nécessaires pour la Polynésie française. Ces ajustements devraient faciliter la compréhension et l'application des dispositions relatives à la lutte contre le financement du terrorisme et le blanchiment des capitaux dans ce territoire.</t>
+   - L'ancienne version de l'article mentionnait les personnes énumérées aux 1° à 7° de l'article L. 561-2, ainsi que certaines entités spécifiques comme les compagnies financières holding et les entreprises mères de sociétés de financement. La nouvelle version étend cette liste pour inclure les personnes mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2. Cette extension élargit le champ des entités soumises aux obligations de déclaration et de partage d'informations.
+2. **Suppression de références spécifiques** :
+   - La nouvelle version a supprimé les références détaillées aux articles spécifiques du code des assurances, du code de la mutualité et du code de la sécurité sociale qui étaient présentes dans l'ancienne version. Cela simplifie la rédaction de l'article mais pourrait potentiellement réduire la précision des entités concernées.
+3. **Ajout d'un nouveau paragraphe (III)** :
+   - La nouvelle version introduit un paragraphe III qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15 réalisées par les entités du groupe. Cette disposition est soumise à des conditions spécifiques, notamment que les entreprises mères soient établies dans un État membre de l'Union européenne, un État partie à l'accord sur l'Espace économique européen, ou un pays tiers imposant des obligations équivalentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Cette inclusion renforce la coordination et la supervision au sein des groupes internationaux.
+4. **Maintien des conditions de protection des données** :
+   - Les conditions relatives à la protection des données personnelles et des libertés fondamentales, conformément aux articles 122 et 123 de la loi n° 78-17 du 6 janvier 1978, sont maintenues dans les deux versions. Cela assure une continuité dans les exigences de protection de la vie privée.
+5. **Clarification des modalités d'application** :
+   - La mention d'un décret en Conseil d'État pour préciser les modalités d'application de l'article est conservée, ce qui garantit que les détails pratiques et procéduraux seront définis par une réglementation secondaire.
+En résumé, les modifications apportées à l'article visent principalement à élargir le champ des entités concernées, à simplifier la rédaction en supprimant certaines références spécifiques, et à introduire de nouvelles dispositions pour améliorer la coordination au sein des groupes internationaux. Ces changements renforcent le cadre réglementaire de la lutte contre le blanchiment de capitaux et le financement du terrorisme tout en maintenant les exigences de protection des données personnelles.</t>
   </si>
   <si>
     <t>L'analyse des modifications apportées à l'article révèle plusieurs changements significatifs :
 1. **Références législatives et réglementaires** :
    - Les articles L. 54-10-3 à L. 54-10-5, initialement régis par la loi n° 2019-486 du 22 mai 2019, sont désormais régis par l'ordonnance n° 2020-1544 du 9 décembre 2020. Cette ordonnance renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques.
    - L'article L. 572-24, initialement sous la loi n° 2019-486, est également régi par l'ordonnance n° 2020-1544.
+2. **Adaptations spécifiques pour la Nouvelle-Calédonie** :
+   - Pour l'application de l'article L. 54-10-3, certaines mentions spécifiques à l'Union européenne sont supprimées, ce qui indique une adaptation locale des dispositions.
+   - Les références aux règlements européens dans les articles L. 54-10-3 et L. 54-10-5 sont remplacées par des références aux règlements européens mentionnés à l'article L. 713-16, ce qui pourrait indiquer une harmonisation avec des dispositions locales ou spécifiques à la Nouvelle-Calédonie.
+   - Les références au code de commerce sont remplacées par des dispositions équivalentes applicables localement, ce qui montre une volonté d'adapter les textes aux réalités juridiques locales.
+3. **Conversion des montants financiers** :
+   - Les montants en euros mentionnés dans les articles L. 572-23 et L. 572-26 sont convertis en francs CFP, la monnaie utilisée en Nouvelle-Calédonie. Cela inclut :
+     - 15 000 euros convertis en 1 790 000 francs CFP.
+     - 30 000 euros convertis en 3 580 000 francs CFP.
+     - 7 500 euros convertis en 895 000 francs CFP.
+Ces modifications montrent une volonté d'adapter les dispositions législatives et réglementaires aux spécificités locales de la Nouvelle-Calédonie, tout en intégrant des évolutions récentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Les conversions monétaires et les adaptations des références législatives et réglementaires visent à assurer une application cohérente et efficace des textes dans ce territoire.</t>
+  </si>
+  <si>
+    <t>L'analyse des modifications apportées à l'article révèle plusieurs ajustements notables :
+1. **Références législatives et ordonnances** :
+   - La nouvelle version de l'article a supprimé certaines références spécifiques à des lois et ordonnances antérieures, notamment celles relatives à la loi n° 2021-1308 du 8 octobre 2021 et à l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie la structure de l'article en consolidant les références législatives pertinentes.
+2. **Applicabilité des articles** :
+   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui uniformise les dispositions applicables en Nouvelle-Calédonie.
+3. **Suppression de dispositions spécifiques** :
+   - La nouvelle version a supprimé le paragraphe 7° du III, ce qui pourrait indiquer une simplification ou une suppression de certaines adaptations spécifiques pour la Nouvelle-Calédonie.
+4. **Adaptations locales** :
+   - Les adaptations locales restent largement inchangées, mais la nouvelle version a clarifié certaines références, notamment en remplaçant les termes relatifs aux règlements européens par des termes plus généraux ou spécifiques à la législation locale.
+5. **Valeurs monétaires** :
+   - Les valeurs monétaires exprimées en euros continuent d'être remplacées par leur contre-valeur en francs CFP, ce qui est cohérent avec l'application locale.
+6. **Suppression de mentions européennes** :
+   - Plusieurs mentions relatives à l'Union européenne et à l'Espace économique européen ont été supprimées, ce qui pourrait refléter une volonté de rendre les dispositions plus autonomes et adaptées au contexte local de la Nouvelle-Calédonie.
+En résumé, les modifications apportées visent principalement à simplifier et à clarifier les dispositions applicables en Nouvelle-Calédonie, tout en supprimant certaines références spécifiques et en consolidant les adaptations locales. Ces changements semblent orientés vers une meilleure lisibilité et une application plus cohérente des règles de lutte contre le financement du terrorisme et le blanchiment des capitaux dans ce territoire.</t>
+  </si>
+  <si>
+    <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs changements notables :
+1. **Suppression de Références Spécifiques** :
+   - La nouvelle version a supprimé les références spécifiques à la loi n° 2021-1308 du 8 octobre 2021 et à l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie le texte en se concentrant sur les ordonnances et lois directement applicables sans mentionner les versions spécifiques.
+2. **Harmonisation des Références** :
+   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais tous mentionnés comme étant applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020. Cela crée une cohérence dans les références législatives.
+3. **Suppression de Dispositions** :
+   - Le point 7° du III a été supprimé dans la nouvelle version. Cela pourrait indiquer une simplification ou une suppression de dispositions jugées non nécessaires ou redondantes.
+4. **Clarification des Adaptations Locales** :
+   - Les adaptations locales, notamment les références aux autorités locales et aux valeurs monétaires en francs CFP, restent inchangées, ce qui maintient la pertinence locale de l'article.
+5. **Suppression de Références Européennes** :
+   - Plusieurs références aux règlements européens et aux traités de l'Union européenne ont été supprimées, ce qui pourrait indiquer une volonté de simplifier le texte en éliminant les références qui ne sont pas directement applicables en Polynésie française.
+6. **Maintien des Dispositions Clés** :
+   - Les dispositions essentielles concernant la lutte contre le financement du terrorisme et le blanchiment des capitaux restent inchangées, assurant ainsi la continuité de la réglementation dans ces domaines critiques.
+En résumé, les modifications apportées visent principalement à simplifier et à harmoniser le texte, en supprimant certaines références spécifiques et en clarifiant les adaptations locales. Les dispositions essentielles de lutte contre le financement du terrorisme et le blanchiment des capitaux restent intactes, garantissant ainsi la continuité de la réglementation dans ces domaines.</t>
+  </si>
+  <si>
+    <t>L'analyse des modifications apportées à l'article révèle plusieurs changements significatifs :
+1. **Références législatives et réglementaires** :
+   - Les articles L. 54-10-3 à L. 54-10-5, initialement régis par la loi n° 2019-486 du 22 mai 2019, sont désormais régis par l'ordonnance n° 2020-1544 du 9 décembre 2020. Cette ordonnance renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques.
+   - Les articles L. 572-24 et L. 572-25, initialement régis par la loi n° 2019-486, sont également soumis à l'ordonnance n° 2020-1544.
 2. **Adaptations spécifiques pour Wallis et Futuna** :
-   - Pour l'application de l'article L. 54-10-3, certaines mentions spécifiques à l'Union européenne sont supprimées, ce qui indique une adaptation locale des dispositions européennes.
-   - Les références aux règlements européens dans les articles L. 54-10-3 et L. 54-10-5 sont modifiées pour se référer à l'article L. 713-16, ce qui pourrait indiquer une harmonisation avec des dispositions locales ou spécifiques à Wallis et Futuna.
+   - Pour l'application de l'article L. 54-10-3, certaines mentions spécifiques à l'Union européenne sont supprimées, ce qui indique une adaptation du texte aux réalités locales de Wallis et Futuna.
+   - Les références aux règlements européens dans les articles L. 54-10-3 et L. 54-10-5 sont remplacées par des références aux règlements européens mentionnés à l'article L. 713-16, ce qui pourrait indiquer une harmonisation avec d'autres dispositions législatives ou une simplification des références pour une meilleure compréhension locale.
 3. **Conversion des montants en euros en francs CFP** :
-   - Les montants en euros mentionnés dans l'article L. 572-23 sont convertis en francs CFP, avec des équivalences précises (15 000 euros deviennent 1 790 000 francs CFP et 30 000 euros deviennent 3 580 000 francs CFP).
-   - De même, pour l'article L. 572-26, le montant de 7 500 euros est converti en 895 000 francs CFP.
-Ces modifications montrent une volonté d'adapter les dispositions législatives et réglementaires françaises aux spécificités locales de Wallis et Futuna, notamment en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme, ainsi qu'en matière de conversion monétaire pour une meilleure compréhension et application locale.</t>
-  </si>
-  <si>
-    <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs changements notables :
-1. **Suppression de Références Législatives** : La nouvelle version a supprimé les références spécifiques à la loi n° 2021-1308 du 8 octobre 2021, à l'ordonnance n° 2021-958 du 19 juillet 2021, et à la loi n° 2021-1109 du 24 août 2021. Cela pourrait indiquer une simplification ou une mise à jour des références législatives pour une meilleure clarté et cohérence.
-2. **Réorganisation des Articles Applicables** : La nouvelle version a réorganisé les articles applicables, en supprimant certaines références spécifiques et en consolidant d'autres. Par exemple, les articles L. 561-24 et L. 561-27 sont maintenant inclus dans une liste plus concise et simplifiée.
-3. **Clarification des Dispositions Applicables** : La nouvelle version a clarifié certaines dispositions en supprimant des redondances et en simplifiant le texte. Par exemple, les références aux articles L. 561-2 et L. 561-36 sont maintenant regroupées sous une seule mention de leur applicabilité.
-4. **Suppression de Dispositions Spécifiques** : Certaines dispositions spécifiques, telles que les références aux recommandations de la Commission européenne et les références aux règlements européens portant mesures restrictives, ont été supprimées. Cela pourrait indiquer une volonté de simplifier le cadre réglementaire applicable aux îles Wallis et Futuna.
-5. **Maintien des Dispositions Clés** : Les dispositions clés concernant la lutte contre le blanchiment de capitaux et le financement du terrorisme, ainsi que le dispositif de gel des avoirs, restent largement inchangées, ce qui montre une continuité dans les efforts de régulation et de conformité.
-En résumé, les modifications apportées visent principalement à simplifier et à clarifier le texte législatif, tout en maintenant les dispositions essentielles pour la régulation et la lutte contre le blanchiment de capitaux et le financement du terrorisme. Ces changements peuvent également refléter une mise à jour des références législatives pour s'aligner sur les évolutions récentes du cadre juridique.</t>
-  </si>
-  <si>
-    <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, tant sur le fond que sur la forme.
+   - Les montants en euros mentionnés dans l'article L. 572-23 sont convertis en francs CFP, ce qui est une adaptation nécessaire pour la monnaie locale de Wallis et Futuna.
+   - De même, les montants en euros dans l'article L. 572-26 sont convertis en francs CFP.
+Ces modifications montrent une volonté d'adapter les dispositions législatives et réglementaires aux spécificités locales de Wallis et Futuna, tout en intégrant des évolutions récentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Les conversions monétaires et les suppressions de mentions spécifiques à l'Union européenne sont des ajustements pratiques pour assurer la pertinence et l'applicabilité des textes dans ce territoire d'outre-mer.</t>
+  </si>
+  <si>
+    <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle les changements suivants :
+1. **Suppression de Références Spécifiques** :
+   - Les articles L. 561-2 et L. 561-36, qui étaient spécifiquement mentionnés dans leur rédaction résultant de la loi n° 2021-1308 du 8 octobre 2021, ne sont plus explicitement référencés dans la nouvelle version. Cela pourrait indiquer une harmonisation ou une simplification des références législatives.
+2. **Ajout de Références** :
+   - L'article L. 561-24, qui était précédemment mentionné dans sa rédaction résultant de la loi n° 2021-1109 du 24 août 2021, est maintenant inclus dans la liste des articles applicables dans leur rédaction résultant de l'ordonnance n° 2020-115 du 12 février 2020. Cela pourrait refléter une mise à jour ou une consolidation des textes applicables.
+3. **Harmonisation des Références** :
+   - Les articles L. 561-25-1 à L. 561-28 sont maintenant regroupés sous une seule mention, ce qui simplifie la lecture et l'application de ces dispositions.
+4. **Clarification des Dispositions Applicables** :
+   - La nouvelle version semble avoir clarifié et simplifié certaines références, notamment en regroupant les articles sous des ordonnances spécifiques, ce qui facilite la compréhension des textes applicables.
+5. **Maintien des Dispositions Spécifiques** :
+   - Les dispositions spécifiques pour l'application dans les îles Wallis et Futuna restent largement inchangées, avec des adaptations locales maintenues pour les références aux codes et valeurs monétaires.
+6. **Suppression de Références à des Directives Européennes** :
+   - Les références spécifiques à des directives européennes et à des règlements européens ont été supprimées ou remplacées par des termes plus généraux, ce qui pourrait indiquer une volonté de rendre le texte plus autonome par rapport aux évolutions du droit européen.
+En conclusion, les modifications apportées visent principalement à simplifier et à clarifier les références législatives, tout en maintenant les adaptations nécessaires pour les îles Wallis et Futuna. Les changements semblent également refléter une mise à jour des textes applicables pour tenir compte des évolutions législatives récentes.</t>
+  </si>
+  <si>
+    <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, tant sur le fond que sur la forme, qui méritent une attention particulière.
 1. **Suppression de certaines obligations spécifiques** :
-   - La nouvelle version a supprimé plusieurs obligations détaillées qui étaient imposées aux prestataires de services, notamment celles relatives à la sécurité et au contrôle interne, à la gestion des conflits d'intérêts, et à la résilience et sécurité des systèmes informatiques. De même, les obligations spécifiques pour les prestataires fournissant le service mentionné au 1° de l'article L. 54-10-2, telles que la conclusion de conventions avec les clients, la politique de conservation, la restitution des actifs numériques, la ségrégation des détentions, et l'usage des actifs numériques, ont été omises.
-2. **Simplification et clarification** :
-   - La nouvelle version semble viser une simplification et une clarification des exigences. Par exemple, les obligations en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme sont maintenues, mais les détails procéduraux et organisationnels ont été allégés.
-3. **Maintien des exigences de base** :
-   - Les exigences fondamentales concernant l'honorabilité et la compétence des dirigeants, ainsi que la gestion saine et prudente par les détenteurs de plus de 25 % du capital ou des droits de vote, sont conservées. De même, les conditions de l'enregistrement par l'Autorité des marchés financiers (AMF) et la nécessité de recueillir l'avis conforme de l'Autorité de contrôle prudentiel et de résolution (ACPR) sont maintenues.
-4. **Suppression de la suspension d'office** :
-   - La disposition permettant à l'AMF de suspendre d'office l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques a été supprimée. Cela pourrait réduire la capacité de l'AMF à intervenir rapidement en cas de risques systémiques.
-5. **Maintien des procédures de radiation** :
-   - Les procédures de radiation des prestataires par l'AMF, sur avis conforme de l'ACPR, sont maintenues, y compris les motifs de radiation tels que l'inactivité prolongée ou le non-respect des obligations.
-6. **Publication et communication** :
-   - La nouvelle version conserve les dispositions relatives à la publication de la liste des prestataires enregistrés par l'AMF et à la communication des documents ou informations nécessaires à l'exercice de sa mission.
-**Portée et conséquences** :
-- **Simplification réglementaire** : La simplification des obligations pourrait réduire la charge administrative pour les prestataires, facilitant ainsi leur conformité.
-- **Risque de moindre protection** : La suppression de certaines obligations spécifiques pourrait potentiellement diminuer le niveau de protection des clients et la résilience des prestataires face aux risques opérationnels.
-- **Flexibilité accrue** : La réduction des détails procéduraux pourrait offrir une plus grande flexibilité aux prestataires dans la mise en œuvre de leurs obligations, tout en maintenant les exigences de base en matière de compétence et d'honorabilité.
-En conclusion, la révision de l'article de loi semble viser une simplification et une clarification des exigences réglementaires, tout en maintenant les principes fondamentaux de supervision par l'AMF et l'ACPR. Toutefois, cette simplification pourrait avoir des implications sur le niveau de protection des clients et la résilience des prestataires.</t>
+   - La nouvelle version a supprimé plusieurs obligations détaillées qui étaient imposées aux prestataires de services, notamment celles relatives à la sécurité et au contrôle interne, à la gestion des conflits d'intérêts, et à la résilience et sécurité des systèmes informatiques. Ces obligations étaient énumérées dans les points 5° et 6° de l'ancienne version. La suppression de ces exigences pourrait alléger les contraintes réglementaires pesant sur les prestataires, mais pourrait également soulever des questions quant à la rigueur de la supervision en matière de sécurité et de gestion des risques.
+2. **Simplification des exigences de conformité** :
+   - La nouvelle version a également supprimé les exigences détaillées concernant la lutte contre le blanchiment des capitaux et le financement du terrorisme, ainsi que les obligations de gel des avoirs et d'interdiction de mise à disposition. Ces exigences étaient auparavant spécifiées dans le point 4° de l'ancienne version. La simplification de ces exigences pourrait faciliter le processus d'enregistrement pour les prestataires, mais pourrait également réduire la clarté et la spécificité des obligations de conformité.
+3. **Clarification des conditions de radiation** :
+   - La nouvelle version maintient les conditions de radiation des prestataires par l'Autorité des marchés financiers (AMF), mais elle a supprimé la mention spécifique de la suspension de l'enregistrement en cas de menace grave et imminente pour la stabilité du marché des actifs numériques. Cette modification pourrait indiquer une volonté de l'AMF de se concentrer davantage sur des mesures correctives plutôt que sur des suspensions immédiates.
+4. **Maintien des exigences de déclaration** :
+   - Les obligations de déclaration auprès de l'AMF en cas de modification affectant le respect des obligations par les prestataires sont maintenues dans la nouvelle version. Cela souligne l'importance continue de la transparence et de la communication entre les prestataires et l'AMF.
+5. **Rôle de l'Autorité de contrôle prudentiel et de résolution (ACPR)** :
+   - La nouvelle version conserve la nécessité pour l'AMF de recueillir l'avis conforme de l'ACPR pour l'enregistrement des prestataires. Cela montre une continuité dans la collaboration entre les deux autorités pour assurer une supervision rigoureuse des prestataires de services.
+En conclusion, la révision de l'article de loi semble viser une simplification et une rationalisation des exigences réglementaires pour les prestataires de services. Toutefois, cette simplification pourrait potentiellement réduire la granularité des obligations de conformité et de sécurité, ce qui pourrait avoir des implications sur la rigueur de la supervision et la protection des clients. Les prestataires devront rester vigilants quant à l'évolution des pratiques de l'AMF et de l'ACPR pour s'assurer de leur conformité continue.</t>
   </si>
   <si>
     <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs changements significatifs.
 1. **Référence au règlement (UE) 2023/1114** :
    - **Ancienne version** : L'ancienne version faisait explicitement référence au règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs, en intégrant les services sur crypto-actifs définis par ce règlement.
-   - **Nouvelle version** : La nouvelle version a supprimé toute mention de ce règlement. Cela pourrait indiquer une volonté de simplifier le texte ou de se détacher des spécificités du règlement européen pour se concentrer uniquement sur la législation nationale.
+   - **Nouvelle version** : La nouvelle version a supprimé toute mention de ce règlement européen. Cela pourrait indiquer une volonté de simplifier le texte ou de se concentrer uniquement sur la législation nationale sans référence explicite aux normes européennes.
 2. **Portée des services concernés** :
-   - **Ancienne version** : La mention des services sur crypto-actifs au sens du règlement (UE) 2023/1114 élargissait potentiellement le champ d'application de l'interdiction à des services définis par le droit européen.
-   - **Nouvelle version** : En supprimant cette référence, la nouvelle version restreint l'interdiction aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, ce qui pourrait limiter la portée de l'interdiction aux services spécifiquement définis par la législation nationale.
+   - **Ancienne version** : La mention des services sur crypto-actifs au sens du règlement (UE) 2023/1114 élargissait potentiellement la portée des services concernés par l'obligation d'enregistrement ou d'autorisation.
+   - **Nouvelle version** : La nouvelle version se limite aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, ce qui pourrait restreindre la portée des services concernés par cette obligation.
 3. **Conditions d'enregistrement et d'autorisation** :
-   - **Ancienne version** : L'ancienne version exigeait que les prestataires soient soit enregistrés par l'Autorité des marchés financiers, soit autorisés à fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114.
-   - **Nouvelle version** : La nouvelle version ne mentionne plus l'autorisation conformément à l'article 59 du règlement européen, se concentrant uniquement sur l'enregistrement préalable par l'Autorité des marchés financiers. Cela simplifie les conditions d'exercice en supprimant une voie d'autorisation.
-4. **Interdiction d'utilisation de dénominations trompeuses** :
+   - **Ancienne version** : L'ancienne version permettait l'exercice de la profession soit par enregistrement auprès de l'Autorité des marchés financiers, soit par autorisation conformément à l'article 59 du règlement (UE) 2023/1114.
+   - **Nouvelle version** : La nouvelle version ne mentionne que l'enregistrement préalable par l'Autorité des marchés financiers, supprimant ainsi la possibilité d'autorisation selon le règlement européen.
+4. **Interdiction d'utilisation de dénomination trompeuse** :
    - **Ancienne version** : L'interdiction s'appliquait à toute personne n'ayant pas la qualité de prestataire des services enregistré ou autorisé.
-   - **Nouvelle version** : L'interdiction s'applique désormais à toute personne n'ayant pas la qualité de prestataire des services mentionnés aux mêmes 1° et 4°. Cette modification pourrait restreindre l'interdiction à un sous-ensemble spécifique de services, bien que cela ne soit pas entièrement clair sans le texte complet de l'article L. 54-10-2.
+   - **Nouvelle version** : L'interdiction s'applique spécifiquement à toute personne n'ayant pas la qualité de prestataire des services mentionnés aux mêmes 1° et 4°, ce qui pourrait indiquer une restriction ou une clarification des catégories de services concernés.
 **Conséquences potentielles** :
-- La suppression des références au règlement européen pourrait simplifier la compréhension et l'application de la loi, mais pourrait également limiter la portée de la réglementation aux seules dispositions nationales.
-- La concentration sur l'enregistrement par l'Autorité des marchés financiers, sans mention d'autres formes d'autorisation, pourrait simplifier les procédures pour les prestataires de services.
-- La modification des termes relatifs à l'interdiction d'utilisation de dénominations trompeuses pourrait nécessiter une clarification supplémentaire pour comprendre pleinement son impact.
-En conclusion, les modifications apportées semblent viser une simplification et une clarification du texte, bien que certaines implications, notamment en termes de portée et de spécificité des services concernés, nécessitent une analyse plus approfondie du contexte législatif complet.</t>
-  </si>
-  <si>
-    <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement de nature technique et de précision, qui peuvent avoir des implications significatives pour les prestataires de services sur actifs numériques.
-1. **Autorité de vérification de la sécurité des systèmes d'information** :
-   - **Ancienne version** : L'Autorité des marchés financiers (AMF) pouvait solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
-   - **Nouvelle version** : L'AMF peut solliciter l'avis de l'autorité nationale en charge de la sécurité des systèmes d'information.
-   - **Conséquence** : Cette modification clarifie et potentiellement élargit le champ des autorités compétentes en matière de sécurité des systèmes d'information, ce qui pourrait renforcer la rigueur des contrôles.
-2. **Seuil de détention de capital ou de droits de vote** :
+- La suppression des références au règlement européen pourrait simplifier l'application de la loi mais pourrait également limiter la reconnaissance des normes européennes dans ce domaine.
+- La restriction de la portée des services concernés et la clarification des conditions d'enregistrement pourraient avoir pour effet de réduire le nombre de prestataires soumis à ces obligations, tout en renforçant la clarté et la prévisibilité juridique pour les acteurs du marché.
+En conclusion, les modifications apportées visent à simplifier et à clarifier les obligations des prestataires de services sur crypto-actifs, tout en recentrant la réglementation sur les dispositions nationales.</t>
+  </si>
+  <si>
+    <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs ajustements notables, principalement dans les sections I, VI et VIII.
+1. **Section I** :
+   - **Ancienne version** : L'Autorité des marchés financiers (AMF) pouvait solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense pour vérifier la sécurité des systèmes d'information des prestataires agréés.
+   - **Nouvelle version** : L'AMF peut désormais solliciter l'avis de l'autorité nationale en charge de la sécurité des systèmes d'information. Ce changement élargit potentiellement le champ des autorités consultables, ce qui pourrait renforcer la sécurité des systèmes d'information des prestataires.
+2. **Section VI** :
    - **Ancienne version** : Les personnes physiques détenant plus de 10 % du capital ou des droits de vote du prestataire devaient justifier de leur honorabilité et compétence.
-   - **Nouvelle version** : Ce seuil est porté à plus de 25 %.
-   - **Conséquence** : Cette augmentation du seuil pourrait réduire le nombre de personnes soumises à cette exigence, simplifiant ainsi la conformité pour les prestataires tout en concentrant les obligations sur les détenteurs de parts significatives.
-3. **Références légales et terminologiques** :
-   - **Ancienne version** : Référence à l'article L. 2321-1 du code de la défense.
-   - **Nouvelle version** : Référence à l'autorité nationale en charge de la sécurité des systèmes d'information.
-   - **Conséquence** : Cette mise à jour des références légales assure une meilleure adéquation avec les structures administratives actuelles et peut améliorer la clarté et l'application de la loi.
-4. **Autres ajustements mineurs** :
-   - **Ancienne version** : Utilisation de termes comme "traitement rapide" des réclamations.
-   - **Nouvelle version** : Maintien de la formulation avec une légère réorganisation syntaxique.
-   - **Conséquence** : Ces ajustements mineurs n'ont pas d'impact significatif sur les obligations des prestataires mais peuvent améliorer la lisibilité et la précision du texte.
-En conclusion, les modifications apportées à l'article de loi visent principalement à clarifier et à actualiser les références légales et les seuils de détention de capital, tout en renforçant les exigences de sécurité des systèmes d'information. Ces changements devraient permettre une meilleure application de la loi et une simplification des obligations pour certains prestataires, tout en maintenant un haut niveau de rigueur et de transparence dans le secteur des actifs numériques.</t>
+   - **Nouvelle version** : Ce seuil est relevé à 25 %. Cette modification pourrait réduire le nombre de personnes soumises à cette exigence, simplifiant ainsi la gestion des prestataires tout en maintenant un contrôle sur les principaux actionnaires.
+3. **Section VIII** :
+   - **Ancienne version** : Le retrait d'agrément pouvait être décidé si le prestataire ne remplissait plus les conditions prévues ou les engagements auxquels était subordonné son agrément.
+   - **Nouvelle version** : La formulation reste globalement la même, mais il est précisé que le retrait peut être prononcé à titre définitif ou jusqu'à ce que le prestataire satisfasse de nouveau aux conditions de l'agrément. Cette précision apporte une clarté supplémentaire sur la nature temporaire ou permanente du retrait d'agrément.
+En conclusion, les modifications apportées visent principalement à clarifier et à ajuster certaines exigences réglementaires, tout en renforçant la sécurité et la transparence des opérations des prestataires de services sur actifs numériques. Le relèvement du seuil de détention de capital pour les obligations de justification d'honorabilité et de compétence pourrait alléger certaines contraintes administratives, tandis que la possibilité de consulter une autorité nationale en charge de la sécurité des systèmes d'information pourrait améliorer la robustesse des contrôles de sécurité.</t>
   </si>
   <si>
     <t>L'analyse des versions antérieure et révisée de l'article de loi révèle une modification spécifique dans la référence aux personnes concernées. L'ancienne version mentionne les personnes aux 1° à 7° de l'article L. 561-2, tandis que la nouvelle version étend cette référence aux personnes aux 1° à 7° bis du même article.
-Le principal changement réside donc dans l'inclusion des personnes visées par le 7° bis, qui n'étaient pas couvertes par la version antérieure. Cette extension pourrait indiquer une volonté du législateur d'élargir le champ d'application de l'interdiction de tenir des comptes ou livrets d'épargne anonymes à une catégorie supplémentaire de personnes, potentiellement pour renforcer les mesures de lutte contre le blanchiment d'argent et le financement du terrorisme.
-La portée de ce changement est significative car elle impose désormais des obligations de transparence à un groupe plus large de personnes, ce qui pourrait avoir des conséquences pratiques sur la conformité des entités concernées et nécessiter des ajustements dans leurs pratiques de gestion des comptes et livrets d'épargne.</t>
-  </si>
-  <si>
-    <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement dans la structure et l'étendue des entités concernées par les obligations de déclaration en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme.
+Le principal changement réside donc dans l'inclusion des personnes visées par le 7° bis, qui n'étaient pas couvertes par la version antérieure. Cette extension pourrait indiquer une volonté législative d'élargir le champ des entités ou individus soumis à l'interdiction de tenir des comptes ou livrets d'épargne anonymes. 
+La portée de cette modification est significative, car elle renforce les mesures de transparence et de lutte contre le blanchiment d'argent et le financement du terrorisme en incluant un groupe supplémentaire de personnes ou entités dans les obligations de non-anonymat des comptes et livrets d'épargne. Les conséquences pratiques de cette révision pourraient impliquer une mise en conformité accrue pour les nouvelles entités concernées, nécessitant des ajustements dans leurs pratiques de gestion des comptes et livrets d'épargne.</t>
+  </si>
+  <si>
+    <t>La comparaison entre l'ancienne et la nouvelle version de l'article de loi révèle plusieurs modifications notables, principalement dans la structure et l'étendue des entités concernées par les obligations de déclaration en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme.
 1. **Extension des entités concernées** :
-   - **Ancienne version** : Les entités mentionnées incluaient les personnes des 1° à 7° de l'article L. 561-2, ainsi que diverses compagnies financières holding, entreprises mères de sociétés de financement, et autres entités similaires appartenant à un même groupe.
-   - **Nouvelle version** : Les entités concernées sont élargies pour inclure les personnes des 1° à 7° bis et 7° quater de l'article L. 561-2. Cette extension pourrait potentiellement inclure de nouvelles catégories d'entités ou de professionnels, augmentant ainsi le champ d'application de la loi.
-2. **Ajout d'un nouveau paragraphe (III)** :
-   - La nouvelle version introduit un paragraphe III, qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations effectuées par les entités du groupe. Cette disposition est conditionnée par plusieurs critères, notamment l'établissement des entreprises mères dans des États membres de l'UE, de l'EEE ou des pays tiers avec des obligations équivalentes en matière de lutte contre le blanchiment et le financement du terrorisme.
-3. **Conditions de divulgation des informations** :
-   - Les conditions de divulgation des informations restent globalement similaires entre les deux versions, avec des exigences strictes sur la nécessité des informations pour la vigilance en matière de lutte contre le blanchiment et le financement du terrorisme, et l'exclusivité de leur utilisation à cette fin.
-   - La protection de la vie privée et des libertés fondamentales des personnes est également maintenue comme une condition essentielle dans les deux versions.
-4. **Harmonisation et clarification** :
-   - La nouvelle version semble viser une harmonisation et une clarification des dispositions, notamment en précisant les entités et les conditions d'accès aux informations. L'ajout du paragraphe III renforce la transparence et la supervision au sein des groupes, en permettant aux entreprises mères d'avoir une vue d'ensemble sur les déclarations effectuées par leurs entités affiliées.
+   - **Ancienne version** : Les entités mentionnées aux 1° à 7° de l'article L. 561-2, ainsi que diverses compagnies financières holding, entreprises mères de sociétés de financement, et autres entités similaires, étaient incluses.
+   - **Nouvelle version** : Les entités concernées sont désormais celles mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2. Cette extension inclut potentiellement de nouvelles catégories d'entités, élargissant ainsi le champ d'application de la loi.
+2. **Suppression de certaines références spécifiques** :
+   - **Ancienne version** : Faisait référence à des articles spécifiques du code des assurances, du code de la mutualité et du code de la sécurité sociale.
+   - **Nouvelle version** : Ces références spécifiques ont été supprimées, simplifiant ainsi le texte et potentiellement élargissant l'application à un plus grand nombre d'entités sans se limiter aux catégories spécifiquement mentionnées auparavant.
+3. **Ajout d'un nouveau paragraphe (III)** :
+   - **Nouvelle version** : Introduit un nouveau paragraphe III qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15 réalisées par les entités du groupe. Cette disposition est soumise à des conditions similaires de protection des données et de nécessité pour la mise en œuvre des obligations de lutte contre le blanchiment et le financement du terrorisme.
+4. **Conditions de divulgation des informations** :
+   - Les conditions de divulgation des informations (a, b, c, d) restent globalement inchangées entre les deux versions, garantissant que les informations échangées sont nécessaires, utilisées exclusivement à des fins de vigilance, et protégées conformément aux normes de protection des données.
+5. **Harmonisation et clarification** :
+   - La nouvelle version semble viser une harmonisation et une clarification des obligations, en supprimant certaines références spécifiques et en ajoutant des dispositions pour les entreprises mères de groupes, ce qui pourrait faciliter la mise en œuvre et la conformité des entités concernées.
 **Conséquences potentielles** :
-- **Renforcement de la conformité** : L'élargissement des entités concernées et l'accès accru aux informations pour les entreprises mères peuvent renforcer la conformité et l'efficacité des mesures de lutte contre le blanchiment et le financement du terrorisme.
-- **Complexité administrative** : L'extension des obligations à de nouvelles entités et l'introduction de nouvelles conditions peuvent augmenter la complexité administrative pour les groupes concernés, nécessitant des ajustements dans leurs procédures internes.
-- **Protection des données** : La réaffirmation des exigences de protection des données personnelles et des libertés fondamentales souligne l'importance de la conformité avec les réglementations en matière de protection des données, ce qui pourrait nécessiter des mesures supplémentaires de la part des entités concernées.
-En conclusion, les modifications apportées à l'article de loi visent à élargir le champ d'application, renforcer la transparence et la supervision au sein des groupes, tout en maintenant des standards élevés de protection des données personnelles. Ces changements devraient améliorer l'efficacité des mesures de lutte contre le blanchiment des capitaux et le financement du terrorisme, bien qu'ils puissent également entraîner une augmentation de la complexité administrative pour les entités concernées.</t>
-  </si>
-  <si>
-    <t>L'analyse des évolutions réglementaires entre l'ancienne et la nouvelle version de l'article de loi révèle plusieurs modifications significatives.
-1. **Modification des références législatives** :
-   - Les articles L. 54-10-3 à L. 54-10-5, initialement issus de la loi n° 2019-486 du 22 mai 2019, sont désormais issus de l'ordonnance n° 2020-1544 du 9 décembre 2020. Cette ordonnance renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques.
-   - De même, l'article L. 572-24 est maintenant issu de cette ordonnance, alors qu'il était précédemment couvert par la loi n° 2019-486.
+- **Élargissement du champ d'application** : L'inclusion des nouvelles catégories d'entités (1° à 7° bis et 7° quater) et la suppression des références spécifiques pourraient entraîner une augmentation du nombre d'entités soumises aux obligations de déclaration.
+- **Renforcement de la supervision des groupes** : L'ajout du paragraphe III permet une meilleure supervision et coordination au sein des groupes, en particulier pour les entreprises mères, ce qui pourrait améliorer l'efficacité des mesures de lutte contre le blanchiment et le financement du terrorisme.
+- **Simplification et clarification** : La simplification du texte et la suppression des références spécifiques peuvent rendre la loi plus accessible et compréhensible, facilitant ainsi la conformité des entités concernées.
+En conclusion, les modifications apportées visent à élargir le champ d'application, renforcer la supervision au sein des groupes, et simplifier la compréhension et la mise en œuvre des obligations de déclaration en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme.</t>
+  </si>
+  <si>
+    <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs changements significatifs entre l'ancienne et la nouvelle version.
+1. **Révision des articles applicables et de leurs sources législatives** :
+   - **Ancienne version** : Les articles L. 54-10-1 à L. 54-10-5 et L. 572-23 à L. 572-26 étaient applicables en Nouvelle-Calédonie, tous issus de la loi n° 2019-486 du 22 mai 2019 relative à la croissance et la transformation des entreprises.
+   - **Nouvelle version** : Les articles L. 54-10-1 et L. 54-10-2 restent issus de la loi n° 2019-486. Cependant, les articles L. 54-10-3 à L. 54-10-5 sont désormais issus de l'ordonnance n° 2020-1544 du 9 décembre 2020, qui renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques. De plus, l'article L. 572-24 est également issu de cette ordonnance, tandis que les articles L. 572-23, L. 572-25 et L. 572-26 restent issus de la loi n° 2019-486.
 2. **Adaptations spécifiques pour la Nouvelle-Calédonie** :
-   - La nouvelle version introduit des adaptations spécifiques pour l'application des articles en Nouvelle-Calédonie. Par exemple, les références à des montants en euros sont converties en francs CFP, ce qui est crucial pour la clarté et la pertinence locale des dispositions.
-   - Les mots “la Banque de France” sont remplacés par “l'Institut d'émission d'outre-mer” pour l'application de l'article L. 54-10-5, ce qui était déjà le cas dans l'ancienne version, mais cette adaptation est maintenant étendue à d'autres articles.
-3. **Suppression et remplacement de termes** :
-   - Pour l'application de l'article L. 54-10-3, certaines mentions spécifiques à l'Union européenne sont supprimées, ce qui pourrait indiquer une volonté de simplifier ou de localiser davantage les dispositions.
-   - Les références aux règlements européens sont remplacées par des références plus générales ou spécifiques à d'autres articles, ce qui pourrait viser à harmoniser les termes utilisés et à éviter des ambiguïtés.
-4. **Références au code de commerce** :
-   - Les références au code de commerce sont remplacées par les dispositions équivalentes applicables localement, ce qui est une adaptation nécessaire pour assurer la cohérence juridique en Nouvelle-Calédonie.
-En conclusion, les modifications apportées visent principalement à adapter les dispositions législatives aux spécificités locales de la Nouvelle-Calédonie, à intégrer les évolutions récentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme, et à harmoniser les termes et références pour une meilleure clarté et application locale. Ces changements sont significatifs pour les praticiens du droit en Nouvelle-Calédonie, car ils nécessitent une mise à jour des références législatives et une compréhension des nouvelles adaptations spécifiques.</t>
-  </si>
-  <si>
-    <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article de loi révèle plusieurs changements notables, principalement dans les références législatives et les adaptations spécifiques à la Nouvelle-Calédonie. Voici les principaux points de comparaison et leurs implications :
+   - **Ancienne version** : Seule une adaptation était mentionnée, remplaçant "la Banque de France" par "l'Institut d'émission d'outre-mer" pour l'application du dernier alinéa de l'article L. 54-10-5.
+   - **Nouvelle version** : Plusieurs adaptations sont introduites :
+     - Suppression de certaines mentions et alinéas pour l'application de l'article L. 54-10-3.
+     - Remplacement de références aux règlements européens par des références locales pour les articles L. 54-10-3 et L. 54-10-5.
+     - Substitution des références au code de commerce par des dispositions locales équivalentes pour les articles L. 54-10-3 et L. 54-10-5.
+     - Conversion des montants en euros en francs CFP pour les articles L. 572-23 et L. 572-26.
+**Portée et conséquences des changements** :
+- **Harmonisation et actualisation** : La nouvelle version intègre des dispositions plus récentes, notamment celles de l'ordonnance de 2020, ce qui reflète une mise à jour du cadre législatif en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme.
+- **Adaptation locale** : Les modifications spécifiques pour la Nouvelle-Calédonie montrent une volonté d'adapter les textes législatifs aux réalités locales, notamment en termes de juridiction et de monnaie.
+- **Complexité accrue** : L'introduction de plusieurs adaptations spécifiques pourrait complexifier l'application des textes pour les praticiens du droit en Nouvelle-Calédonie, nécessitant une attention particulière aux détails des modifications.
+En conclusion, les révisions apportées à cet article de loi visent à moderniser et adapter le cadre législatif applicable en Nouvelle-Calédonie, tout en tenant compte des spécificités locales. Ces changements sont significatifs et nécessitent une compréhension approfondie pour une application correcte.</t>
+  </si>
+  <si>
+    <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs ajustements notables entre l'ancienne et la nouvelle version. Voici les principaux changements, leur portée et leurs éventuelles conséquences :
+1. **Références aux textes législatifs et réglementaires** :
+   - La nouvelle version a supprimé les références spécifiques à certaines lois et ordonnances, notamment la loi n° 2021-1308 du 8 octobre 2021 et l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie la lecture et l'application de l'article en se concentrant sur les textes pertinents et actuels.
+   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui unifie les références législatives et assure une cohérence dans l'application des dispositions relatives à la lutte contre le blanchiment de capitaux et le financement du terrorisme.
+2. **Suppression de certaines dispositions** :
+   - La suppression du point 7° du III de l'article L. 561-31 dans la nouvelle version indique une simplification ou une révision des dispositions relatives à la fraude fiscale. Cela pourrait signifier une clarification des règles applicables ou une adaptation aux spécificités locales de la Nouvelle-Calédonie.
+3. **Adaptations locales** :
+   - Les adaptations locales restent largement inchangées, avec des références aux autorités et organismes locaux compétents pour remplacer les références aux entités métropolitaines. Cela assure que les dispositions législatives sont pertinentes et applicables dans le contexte spécifique de la Nouvelle-Calédonie.
+   - Les valeurs monétaires exprimées en euros continuent d'être converties en francs CFP, ce qui est essentiel pour la cohérence économique et juridique locale.
+4. **Suppression de références à l'Union européenne** :
+   - La nouvelle version continue de supprimer les références aux règlements et directives de l'Union européenne, ce qui est cohérent avec le statut particulier de la Nouvelle-Calédonie. Cela évite les confusions et les incohérences dans l'application des règles locales par rapport aux normes européennes.
+5. **Clarifications et simplifications** :
+   - La nouvelle version apporte des clarifications en supprimant des phrases redondantes ou en simplifiant la rédaction. Par exemple, les modifications apportées aux articles L. 561-36-1 et L. 561-36-2 visent à rendre les dispositions plus claires et directement applicables sans ambiguïté.
+En conclusion, les modifications apportées à cet article de loi visent principalement à simplifier et clarifier les dispositions applicables en Nouvelle-Calédonie, tout en assurant une cohérence avec les textes législatifs et réglementaires en vigueur. Ces ajustements devraient faciliter l'application des règles relatives à la lutte contre le blanchiment de capitaux et le financement du terrorisme, tout en tenant compte des spécificités locales.</t>
+  </si>
+  <si>
+    <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement dans les références législatives et les adaptations spécifiques à la Polynésie française.
 1. **Références législatives mises à jour** :
-   - La nouvelle version intègre les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui n'était pas le cas dans l'ancienne version. Cela indique une harmonisation avec les dispositions récentes concernant la lutte contre le blanchiment de capitaux et le financement du terrorisme applicables aux actifs numériques.
+   - La nouvelle version intègre les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui n'était pas le cas dans l'ancienne version. Cela indique une mise à jour pour inclure les dernières modifications législatives concernant la lutte contre le blanchiment de capitaux et le financement du terrorisme applicables aux actifs numériques.
    - Les articles L. 561-36, L. 561-36-2, L. 561-36-3, L. 561-37, L. 561-38, L. 562-3 à L. 562-9, L. 562-11, L. 562-12 et L. 574-3 sont maintenus dans leur rédaction résultant de l'ordonnance n° 2020-1342 du 4 novembre 2020, ce qui reste inchangé.
-2. **Suppression de certaines dispositions** :
-   - Le point 7° du III, qui faisait référence à l'application de l'article L. 561-31-2, a été supprimé dans la nouvelle version. Cela pourrait indiquer une simplification ou une révision des dispositions spécifiques à la Nouvelle-Calédonie concernant les infractions de fraude fiscale.
-3. **Harmonisation des termes et références** :
-   - Les références aux règlements européens portant mesures restrictives pris en application des articles 75 ou 215 du traité sur le fonctionnement de l'Union européenne sont remplacées par des références aux règlements européens mentionnés à l'article L. 713-16. Cette modification vise à clarifier et harmoniser les termes utilisés dans le contexte local.
-4. **Adaptations spécifiques à la Nouvelle-Calédonie** :
-   - Les adaptations locales, telles que la conversion des valeurs monétaires en francs CFP et les références aux autorités locales compétentes, restent inchangées, ce qui montre une continuité dans l'application des dispositions législatives adaptées au contexte de la Nouvelle-Calédonie.
-5. **Clarifications et suppressions de certaines références** :
-   - Plusieurs références à des entités ou des dispositions européennes ont été supprimées, notamment celles relatives à l'espace économique européen et aux règlements européens spécifiques. Cela pourrait simplifier l'application locale des dispositions législatives en éliminant les références non pertinentes pour la Nouvelle-Calédonie.
-En conclusion, les modifications apportées visent principalement à mettre à jour les références législatives, harmoniser les termes utilisés et supprimer certaines dispositions spécifiques pour simplifier l'application locale. Ces changements devraient faciliter la compréhension et l'application des lois en Nouvelle-Calédonie, tout en assurant une meilleure adaptation aux réalités locales.</t>
-  </si>
-  <si>
-    <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs ajustements notables, tant sur le fond que sur la forme, qui méritent d'être soulignés.
-1. **Références législatives et rédactionnelles** :
-   - La nouvelle version simplifie et actualise les références législatives. Par exemple, les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui uniformise les références et clarifie leur application.
-   - Les articles L. 561-36, L. 561-36-2, L. 561-36-3, L. 561-37, L. 561-38, L. 562-3 à L. 562-9, L. 562-11, L. 562-12 et L. 574-3 sont maintenus dans leur rédaction résultant de l'ordonnance n° 2020-1342 du 4 novembre 2020, ce qui renforce la continuité et la cohérence du dispositif de gel des avoirs.
-2. **Suppression de dispositions spécifiques** :
-   - La suppression du point 7° du III, qui concernait les modifications apportées à l'article L. 561-31-2, indique une simplification ou une suppression de certaines adaptations spécifiques à la Polynésie française. Cela pourrait signifier une harmonisation plus large avec le droit métropolitain ou une simplification administrative.
-3. **Adaptations locales** :
-   - Les adaptations locales restent largement inchangées, notamment les références aux codes et valeurs monétaires locales, ce qui continue de garantir la pertinence et l'applicabilité des dispositions en Polynésie française.
-   - Les références aux autorités locales de contrôle et de sanction pour les professions réglementées (experts-comptables, notaires, huissiers de justice, commissaires-priseurs) sont maintenues, assurant ainsi que les spécificités locales sont respectées.
-4. **Clarifications et suppressions de termes** :
-   - Plusieurs suppressions de termes relatifs à l'Union européenne et à l'Espace économique européen (EEE) sont maintenues, ce qui reflète une adaptation nécessaire au contexte juridique spécifique de la Polynésie française, qui n'est pas membre de l'UE ni de l'EEE.
-   - Les références aux règlements européens portant mesures restrictives sont remplacées par des références aux règlements européens mentionnés à l'article L. 713-16, ce qui pourrait indiquer une mise à jour des références pour plus de précision et de conformité.
-5. **Conséquences potentielles** :
-   - Ces modifications visent principalement à clarifier et à simplifier les références législatives, tout en maintenant les adaptations nécessaires pour la Polynésie française. Cela devrait faciliter l'application des dispositions légales et renforcer la lutte contre le blanchiment de capitaux et le financement du terrorisme dans ce territoire.
-   - La suppression de certaines adaptations spécifiques pourrait également indiquer une volonté d'harmoniser davantage le droit applicable en Polynésie française avec celui de la métropole, tout en respectant les particularités locales.
-En conclusion, les modifications apportées à cet article de loi semblent viser une meilleure clarté, une mise à jour des références législatives et une simplification administrative, tout en maintenant les adaptations nécessaires pour la Polynésie française. Ces changements devraient contribuer à une application plus efficace et cohérente des dispositions relatives à la lutte contre le blanchiment de capitaux et le financement du terrorisme.</t>
+2. **Suppression de certaines références** :
+   - La nouvelle version a supprimé la mention des articles L. 561-27, L. 561-29-1 et L. 561-31-2, qui étaient présents dans l'ancienne version. Cela pourrait indiquer une révision ou une suppression de ces articles dans le contexte législatif applicable à la Polynésie française.
+3. **Adaptations spécifiques** :
+   - Le point 7° du III a été supprimé dans la nouvelle version. Ce point concernait les adaptations spécifiques pour l'application de l'article L. 561-31-2, notamment les références à Europol et aux intérêts de sécurité nationale. La suppression de ce point pourrait simplifier ou clarifier l'application de cet article en Polynésie française.
+   - Les autres adaptations spécifiques (points 8° à 12°) restent inchangées, ce qui montre une continuité dans les adaptations locales nécessaires pour l'application des dispositions législatives.
+4. **Conséquences potentielles** :
+   - La mise à jour des références législatives assure que la Polynésie française applique les versions les plus récentes des articles de loi, ce qui est crucial pour maintenir une législation cohérente et à jour avec les évolutions législatives nationales.
+   - La suppression de certaines références et adaptations spécifiques pourrait simplifier l'application de la loi en Polynésie française, mais nécessite une vigilance pour s'assurer que cela n'entraîne pas de lacunes juridiques ou d'incohérences.
+En conclusion, les modifications apportées visent principalement à actualiser les références législatives et à simplifier certaines adaptations spécifiques pour la Polynésie française. Ces changements devraient permettre une application plus cohérente et à jour des dispositions législatives relatives à la lutte contre le financement du terrorisme et le blanchiment des capitaux.</t>
   </si>
   <si>
     <t>L'analyse des modifications apportées à l'article de loi concernant les îles Wallis et Futuna révèle plusieurs changements significatifs entre l'ancienne et la nouvelle version.
 1. **Références législatives et ordonnances** :
    - **Ancienne version** : Les articles L. 54-10-1 à L. 54-10-5 et L. 572-23 à L. 572-26 étaient applicables dans leur rédaction résultant de la loi n° 2019-486 du 22 mai 2019 relative à la croissance et la transformation des entreprises.
    - **Nouvelle version** : Les articles L. 54-10-1 et L. 54-10-2 restent sous la même loi de 2019, mais les articles L. 54-10-3 à L. 54-10-5 sont désormais régis par l'ordonnance n° 2020-1544 du 9 décembre 2020, qui renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques. De plus, l'article L. 572-24 est également soumis à cette ordonnance, tandis que les articles L. 572-23, L. 572-25 et L. 572-26 restent sous la loi de 2019.
-2. **Modifications spécifiques pour l'application locale** :
-   - **Ancienne version** : Seule une modification était mentionnée, remplaçant "la Banque de France" par "l'Institut d'émission d'outre-mer" pour l'application du dernier alinéa de l'article L. 54-10-5.
-   - **Nouvelle version** : Plusieurs ajustements sont introduits :
-     - Pour l'article L. 54-10-3, suppression des mots "ou dans un autre Etat membre de l'Union européenne ou partie à l'accord sur l'Espace économique européen" et du sixième alinéa.
-     - Pour les articles L. 54-10-3 et L. 54-10-5, remplacement des références aux règlements européens par ceux mentionnés à l'article L. 713-16.
-     - Pour l'article L. 572-23, les montants en euros sont convertis en francs CFP (1 790 000 francs CFP au lieu de 15 000 euros et 3 580 000 francs CFP au lieu de 30 000 euros).
-     - Pour l'article L. 572-26, le montant de 7 500 euros est converti en 895 000 francs CFP.
+2. **Adaptations spécifiques pour Wallis et Futuna** :
+   - **Ancienne version** : Seule une adaptation était mentionnée, remplaçant "la Banque de France" par "l'Institut d'émission d'outre-mer" pour l'application du dernier alinéa de l'article L. 54-10-5.
+   - **Nouvelle version** : Plusieurs adaptations sont introduites :
+     - Suppression de certaines mentions dans l'article L. 54-10-3 concernant les États membres de l'Union européenne.
+     - Modification des références aux règlements européens dans les articles L. 54-10-3 et L. 54-10-5.
+     - Conversion des montants en euros en francs CFP pour les articles L. 572-23 et L. 572-26, avec des montants spécifiques adaptés à la monnaie locale.
 **Portée et conséquences** :
-- **Adaptation aux nouvelles régulations** : L'intégration de l'ordonnance de 2020 montre une volonté d'aligner la législation locale sur les nouvelles normes internationales en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme, particulièrement pour les actifs numériques.
-- **Clarification et spécificité locale** : Les ajustements spécifiques pour l'application locale, notamment les conversions monétaires et les suppressions de certaines références européennes, visent à rendre la législation plus pertinente et applicable dans le contexte des îles Wallis et Futuna.
-- **Impact sur les acteurs locaux** : Les modifications monétaires et les ajustements législatifs peuvent avoir des implications pratiques pour les entreprises et les institutions financières locales, nécessitant une adaptation aux nouvelles exigences réglementaires.
-En conclusion, la révision de cet article de loi reflète une mise à jour significative pour intégrer des régulations plus récentes et spécifiques, tout en adaptant les dispositions aux réalités locales des îles Wallis et Futuna.</t>
-  </si>
-  <si>
-    <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement dans la structure et la portée des dispositions applicables aux îles Wallis et Futuna. Voici les principaux changements et leurs implications :
-1. **Suppression de Références à des Lois Spécifiques** :
-   - La nouvelle version a supprimé les références spécifiques à certaines lois et ordonnances, notamment celles résultant de la loi n° 2021-1308 du 8 octobre 2021 et de l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie la lecture et l'application de l'article en évitant des renvois multiples à des textes législatifs externes.
-2. **Harmonisation des Dispositions Applicables** :
-   - La nouvelle version maintient l'applicabilité des articles du titre VI du livre V dans les îles Wallis et Futuna, mais elle clarifie et regroupe les articles en fonction de leur origine législative ou ordonnancielle. Cela permet une meilleure compréhension des textes applicables et de leur contexte législatif.
-3. **Clarification des Exceptions** :
-   - Les exceptions à l'applicabilité de certains articles sont maintenues, mais la nouvelle version les présente de manière plus concise. Par exemple, les exceptions pour les opérateurs de jeux ou de paris autorisés sont clairement énoncées, ce qui facilite l'identification des dispositions non applicables.
-4. **Adaptation des Références Monétaires** :
-   - Les valeurs monétaires exprimées en euros sont remplacées par leur contre-valeur en francs CFP, ce qui est maintenu dans la nouvelle version. Cela assure la pertinence des montants pour le contexte local des îles Wallis et Futuna.
-5. **Suppression de Références à l'Union Européenne** :
-   - La nouvelle version continue de supprimer les références à l'Union Européenne et à l'Espace Économique Européen dans plusieurs articles, ce qui est pertinent pour l'application locale où ces entités n'ont pas de juridiction directe.
-6. **Simplification des Dispositions de Gel des Avoirs** :
-   - Les articles relatifs au gel des avoirs et à l'interdiction de mise à disposition sont maintenus, mais la nouvelle version simplifie les références aux règlements européens, en les remplaçant par des références locales pertinentes.
-7. **Maintien des Dispositions Spécifiques** :
-   - Les dispositions spécifiques concernant la transmission d'informations fiscales et la lutte contre la fraude fiscale sont maintenues, avec des clarifications sur les entités locales compétentes.
-En conclusion, la révision de l'article de loi vise principalement à simplifier et clarifier les dispositions applicables aux îles Wallis et Futuna, en supprimant des références législatives complexes et en adaptant les textes aux réalités locales. Ces modifications devraient faciliter l'application et l'interprétation des lois dans ce territoire, tout en maintenant les objectifs de lutte contre le blanchiment de capitaux et le financement du terrorisme.</t>
+- **Renforcement de la lutte contre le blanchiment et le financement du terrorisme** : L'introduction de l'ordonnance n° 2020-1544 pour certains articles montre une volonté de renforcer le cadre juridique en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme, spécifiquement pour les actifs numériques.
+- **Adaptation monétaire** : La conversion des montants en euros en francs CFP pour les sanctions financières dans les articles L. 572-23 et L. 572-26 permet une meilleure adéquation avec la réalité économique locale des îles Wallis et Futuna.
+- **Clarification et simplification** : Les suppressions et modifications de certaines mentions européennes visent à simplifier l'application des articles dans le contexte spécifique des îles Wallis et Futuna, en tenant compte de leur statut particulier.
+En conclusion, les modifications apportées visent à adapter et renforcer le cadre législatif applicable aux îles Wallis et Futuna, en tenant compte des spécificités locales et des évolutions récentes en matière de régulation financière et de lutte contre le blanchiment de capitaux et le financement du terrorisme.</t>
+  </si>
+  <si>
+    <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs ajustements notables, tant sur le fond que sur la forme, concernant l'application des dispositions légales dans les îles Wallis et Futuna.
+1. **Suppression de Références à des Lois Spécifiques**:
+   - La nouvelle version omet les références spécifiques à la loi n° 2021-1308 du 8 octobre 2021, à l'ordonnance n° 2021-958 du 19 juillet 2021, et à la loi n° 2021-1109 du 24 août 2021. Cela pourrait indiquer une simplification ou une harmonisation des textes applicables, réduisant ainsi la complexité des renvois législatifs.
+2. **Harmonisation des Dispositions Applicables**:
+   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui unifie les textes applicables aux actifs numériques et renforce le cadre de lutte contre le blanchiment de capitaux et le financement du terrorisme.
+3. **Clarification des Dispositions Spécifiques**:
+   - Les articles L. 561-24 et L. 561-27 sont explicitement mentionnés dans la nouvelle version, ce qui clarifie leur application dans les îles Wallis et Futuna. Cela pourrait améliorer la compréhension et l'application de ces articles par les autorités locales.
+4. **Suppression de Références à des Actes Européens**:
+   - Plusieurs références à des règlements et directives européens ont été supprimées, notamment dans les articles L. 561-4-1, L. 561-7, L. 561-20, L. 561-36, L. 561-36-1, L. 562-3-1, L. 562-4, L. 562-4-1, L. 562-8, L. 562-11, et L. 562-12. Cette suppression vise à adapter les dispositions légales au contexte local des îles Wallis et Futuna, où les règlements européens ne s'appliquent pas directement.
+5. **Adaptation des Valeurs Monétaires**:
+   - Les valeurs monétaires exprimées en euros sont systématiquement remplacées par leur contre-valeur en francs CFP, ce qui est essentiel pour la pertinence et l'application locale des dispositions financières.
+6. **Précisions sur les Infractions de Fraude Fiscale**:
+   - La nouvelle version précise les infractions de fraude fiscale en se référant explicitement à l'article 1741 du code général des impôts et aux dispositions locales, ce qui renforce la clarté juridique et l'application des sanctions fiscales.
+7. **Modifications Techniques et de Formulation**:
+   - Des ajustements techniques et de formulation ont été apportés pour améliorer la lisibilité et la cohérence du texte, notamment en ce qui concerne les références aux organismes compétents localement et les termes spécifiques aux îles Wallis et Futuna.
+En conclusion, les modifications apportées visent principalement à simplifier et à clarifier les dispositions légales applicables dans les îles Wallis et Futuna, tout en harmonisant les textes avec les évolutions législatives récentes. Ces ajustements devraient faciliter l'application des lois par les autorités locales et renforcer l'efficacité des mesures de lutte contre le blanchiment de capitaux et le financement du terrorisme.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,13 +657,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,21 +668,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -728,7 +712,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -762,7 +746,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -797,10 +780,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -973,20 +955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="21" max="21" width="62.6640625" customWidth="1"/>
-    <col min="22" max="22" width="85.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>688</v>
       </c>
@@ -1112,14 +1088,14 @@
       <c r="T2" t="s">
         <v>100</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" t="s">
         <v>101</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>689</v>
       </c>
@@ -1187,7 +1163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>690</v>
       </c>
@@ -1255,7 +1231,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>691</v>
       </c>
@@ -1323,7 +1299,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>694</v>
       </c>
@@ -1391,7 +1367,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>697</v>
       </c>
@@ -1459,7 +1435,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>698</v>
       </c>
@@ -1527,7 +1503,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>699</v>
       </c>
@@ -1595,7 +1571,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>700</v>
       </c>
@@ -1663,7 +1639,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>701</v>
       </c>

--- a/data_output_ipynb/output_llm_change_analysis_v2.xlsx
+++ b/data_output_ipynb/output_llm_change_analysis_v2.xlsx
@@ -646,31 +646,33 @@
       <c r="V2" t="inlineStr">
         <is>
           <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
-1. **Suppression de certaines obligations spécifiques** : La nouvelle version de l'article a supprimé plusieurs obligations détaillées qui étaient imposées aux prestataires de services, notamment celles relatives à la sécurité et au contrôle interne, à la gestion des conflits d'intérêts, à la résilience et à la sécurité des systèmes informatiques, ainsi qu'à la politique de conservation et de restitution des actifs numériques. Ces obligations étaient énumérées dans les points 5° et 6° de l'ancienne version.
-2. **Réduction des vérifications par l'AMF** : La nouvelle version a également supprimé la disposition selon laquelle l'Autorité des marchés financiers (AMF) vérifie la sécurité des systèmes d'information des prestataires enregistrés et peut solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
-3. **Simplification des conditions de conformité** : La nouvelle version a simplifié les conditions de conformité pour les prestataires enregistrés ou immatriculés dans un autre État membre de l'Union européenne ou partie à l'accord sur l'Espace économique européen, en supprimant la mention des conditions spécifiques aux 1° et 2° de l'article.
-4. **Clarification des procédures de radiation** : Les conditions de radiation des prestataires par l'AMF ont été maintenues, mais la nouvelle version a supprimé la mention explicite des motifs de radiation, tels que l'absence d'activité pendant douze mois ou plus, ou le non-respect des obligations.
-5. **Suppression de la publication des politiques tarifaires et de gestion des réclamations** : L'obligation pour les prestataires de rendre publiques leurs politiques tarifaires et de mettre en œuvre une politique de gestion des réclamations a été supprimée dans la nouvelle version.
-6. **Suppression de la suspension d'enregistrement en cas de menace pour la stabilité du marché** : La disposition permettant à l'AMF de suspendre l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques a été supprimée.
-En résumé, la nouvelle version de l'article semble viser une simplification et une réduction des obligations et des vérifications imposées aux prestataires de services. Les exigences spécifiques en matière de sécurité, de gestion des conflits d'intérêts, et de publication des politiques tarifaires et de gestion des réclamations ont été supprimées, ce qui pourrait alléger la charge administrative pour les prestataires. Cependant, cela pourrait également soulever des questions sur la rigueur de la supervision et la protection des clients.</t>
+1. **Suppression de certaines obligations spécifiques** : La nouvelle version de l'article a supprimé plusieurs obligations détaillées qui étaient imposées aux prestataires de services, notamment celles relatives à la sécurité et au contrôle interne, à la gestion des conflits d'intérêts, à la résilience et à la sécurité des systèmes informatiques, ainsi qu'aux obligations spécifiques pour les prestataires fournissant le service mentionné au 1° de l'article L. 54-10-2. Ces obligations incluaient la conclusion de conventions avec les clients, l'établissement de politiques de conservation, la restitution des actifs numériques, la ségrégation des détentions et l'usage des actifs numériques avec le consentement des clients.
+2. **Réduction des vérifications par l'AMF** : La nouvelle version a également supprimé la vérification par l'Autorité des marchés financiers (AMF) de la sécurité des systèmes d'information des prestataires enregistrés. De plus, la possibilité pour l'AMF de suspendre l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques a été retirée.
+3. **Simplification des procédures** : La nouvelle version semble simplifier les procédures en supprimant certaines étapes et exigences détaillées. Par exemple, la nécessité pour l'AMF de recueillir l'avis conforme de l'Autorité de contrôle prudentiel et de résolution sur le respect des conditions prévues aux 1° à 4° a été maintenue, mais les détails sur les procédures de suspension et de radiation ont été simplifiés.
+4. **Clarification des conditions de fourniture de services en France** : La nouvelle version maintient la disposition selon laquelle les conditions dans lesquelles un service est considéré comme fourni en France sont fixées par le règlement général de l'AMF, mais elle a supprimé les détails supplémentaires qui étaient présents dans l'ancienne version.
+En résumé, la nouvelle version de l'article semble viser à simplifier et à alléger certaines des obligations et des procédures imposées aux prestataires de services, tout en maintenant les exigences fondamentales en matière d'enregistrement et de conformité. Les modifications apportées pourraient être interprétées comme une volonté de rendre le cadre réglementaire plus flexible et moins contraignant pour les prestataires, tout en conservant les éléments essentiels de supervision et de contrôle par l'AMF.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, tant sur le fond que sur la forme, qui méritent une attention particulière.
-1. **Suppression de certaines obligations spécifiques** :
-   - La nouvelle version a supprimé plusieurs obligations détaillées qui étaient imposées aux prestataires de services, notamment celles relatives à la sécurité et au contrôle interne, à la gestion des conflits d'intérêts, et à la résilience et sécurité des systèmes informatiques (ancien 5°). De même, les obligations spécifiques pour les prestataires fournissant le service mentionné au 1° de l'article L. 54-10-2, telles que la conclusion de conventions avec les clients, la politique de conservation, la restitution des actifs numériques, la ségrégation des détentions, et l'usage des actifs numériques (ancien 6°), ont été omises dans la nouvelle version.
-2. **Simplification et réduction des exigences** :
-   - La nouvelle version semble simplifier le cadre réglementaire en réduisant le nombre de critères que l'Autorité des marchés financiers (AMF) doit vérifier avant d'enregistrer les prestataires. Cette simplification pourrait alléger la charge administrative pour les prestataires, mais elle pourrait aussi soulever des questions sur la rigueur et la robustesse du cadre de régulation.
-3. **Maintien des obligations de lutte contre le blanchiment et le financement du terrorisme** :
-   - Les obligations en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme, de gel des avoirs et d'interdiction de mise à disposition restent inchangées. Cela montre une continuité dans l'importance accordée à ces aspects critiques de la régulation financière.
-4. **Clarification des conditions de radiation** :
-   - Les conditions de radiation des prestataires par l'AMF sont maintenues, mais la nouvelle version semble les présenter de manière plus concise. Les motifs de radiation incluent toujours la demande du prestataire, l'inactivité prolongée, et le non-respect des obligations ou l'obtention de l'enregistrement par des moyens irréguliers.
-5. **Suppression de la suspension d'office par l'AMF** :
-   - La possibilité pour l'AMF de suspendre d'office l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques a été supprimée. Cette suppression pourrait réduire la capacité de l'AMF à intervenir rapidement en cas de risques systémiques.
-6. **Maintien de la coopération entre l'AMF et l'ACPR** :
-   - La coopération entre l'AMF et l'Autorité de contrôle prudentiel et de résolution (ACPR) est maintenue, notamment pour l'avis conforme nécessaire à l'enregistrement des prestataires. Cela souligne l'importance de la collaboration interinstitutionnelle dans la régulation des services financiers.
-En conclusion, la révision de l'article de loi semble viser une simplification et une réduction des exigences administratives pour les prestataires de services, tout en maintenant les obligations essentielles en matière de lutte contre le blanchiment et le financement du terrorisme. Toutefois, la suppression de certaines obligations spécifiques et de la capacité de suspension d'office par l'AMF pourrait avoir des implications sur la rigueur du cadre de régulation et la capacité de réponse rapide aux risques systémiques.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, qui peuvent être résumées comme suit :
+1. **Suppression de certaines exigences spécifiques** :
+   - La nouvelle version a supprimé les exigences détaillées concernant les dispositifs de sécurité, de contrôle interne, de gestion des conflits d'intérêts, et de systèmes informatiques résilients et sécurisés (ancien 5°).
+   - Les obligations spécifiques pour les prestataires fournissant le service mentionné au 1° de l'article L. 54-10-2, telles que la conclusion de conventions avec les clients, l'établissement d'une politique de conservation, la restitution des actifs numériques, la ségrégation des détentions, et l'usage des actifs numériques avec consentement préalable (ancien 6°), ont également été supprimées.
+2. **Clarification des obligations de lutte contre le blanchiment et le financement du terrorisme** :
+   - La nouvelle version maintient les obligations de conformité en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme, mais simplifie la rédaction en supprimant les références détaillées aux articles spécifiques du Code monétaire et financier.
+3. **Suppression des obligations de communication et de gestion des réclamations** :
+   - Les obligations de communication d'informations claires, exactes et non trompeuses, d'avertissement des risques associés aux actifs numériques, de publication des politiques tarifaires, et de gestion des réclamations des clients ont été supprimées.
+4. **Simplification des procédures de suspension et de radiation** :
+   - La nouvelle version a supprimé la disposition permettant à l'Autorité des marchés financiers (AMF) de suspendre d'office l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques.
+   - Les conditions de radiation par l'AMF restent similaires, mais la nouvelle version a supprimé la mention de la radiation pour fausses déclarations ou moyens irréguliers.
+5. **Maintien des procédures d'enregistrement et de coopération entre autorités** :
+   - Les procédures d'enregistrement par l'AMF et la coopération avec l'Autorité de contrôle prudentiel et de résolution (ACPR) sont maintenues, mais la nouvelle version simplifie la rédaction en supprimant les détails superflus.
+**Portée et conséquences** :
+- **Simplification et allègement réglementaire** : La nouvelle version simplifie les exigences réglementaires, ce qui pourrait réduire la charge administrative pour les prestataires de services.
+- **Réduction des garanties pour les clients** : La suppression des obligations spécifiques de communication, de gestion des réclamations, et de sécurité des systèmes pourrait potentiellement réduire les garanties offertes aux clients.
+- **Maintien des obligations essentielles** : Les obligations essentielles en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme sont maintenues, assurant ainsi la conformité avec les normes européennes.
+En conclusion, la révision de l'article de loi semble viser une simplification des exigences réglementaires tout en maintenant les obligations essentielles de conformité, ce qui pourrait avoir des implications significatives pour les prestataires de services et leurs clients.</t>
         </is>
       </c>
     </row>
@@ -775,32 +777,19 @@
       <c r="V3" t="inlineStr">
         <is>
           <t>L'analyse des modifications apportées à cet article révèle plusieurs changements significatifs :
-1. **Suppression de la référence au règlement (UE) 2023/1114** : La nouvelle version de l'article ne fait plus mention du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cela simplifie le texte en supprimant les références spécifiques à la législation européenne, ce qui pourrait indiquer une volonté de se concentrer uniquement sur la réglementation nationale.
-2. **Réduction du champ d'application** : La nouvelle version de l'article se limite aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, sans inclure les services sur crypto-actifs au sens du règlement européen. Cela pourrait signifier une restriction du champ d'application de l'article aux seuls services définis par la législation nationale.
-3. **Clarification des interdictions** : La nouvelle version précise que l'interdiction d'utiliser une dénomination, une raison sociale, une publicité ou tout autre procédé laissant croire à un enregistrement ou une autorisation s'applique spécifiquement aux prestataires des services mentionnés aux mêmes 1° et 4°. Cette précision renforce la clarté de l'article en définissant plus précisément les catégories de services concernés par cette interdiction.
-En résumé, les modifications apportées à cet article visent à simplifier et à clarifier le texte en supprimant les références à la législation européenne et en précisant les catégories de services concernés par les interdictions. Ces changements peuvent refléter une volonté de rendre la réglementation plus accessible et compréhensible pour les acteurs du marché.</t>
+1. **Suppression de la référence au règlement (UE) 2023/1114** : La nouvelle version de l'article ne fait plus mention du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cela pourrait indiquer une volonté de simplifier le texte en supprimant les références spécifiques à la législation européenne, ou une modification de la portée de l'article pour se concentrer uniquement sur la législation nationale.
+2. **Restriction des services concernés** : La nouvelle version de l'article se limite aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, sans inclure les services sur crypto-actifs au sens du règlement européen. Cela pourrait signifier une restriction du champ d'application de l'article, se concentrant uniquement sur les services définis par la législation nationale.
+3. **Clarification des interdictions** : La nouvelle version précise que l'interdiction d'utiliser une dénomination, une raison sociale, une publicité ou tout autre procédé laissant croire à un enregistrement ou une autorisation s'applique spécifiquement aux prestataires des services mentionnés aux mêmes 1° et 4°. Cette précision pourrait viser à éviter toute ambiguïté quant aux services concernés par cette interdiction.
+En résumé, les modifications apportées à cet article semblent viser à simplifier et clarifier le texte, en se concentrant sur la législation nationale et en précisant les services concernés par les interdictions.</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs changements significatifs.
-1. **Référence au règlement (UE) 2023/1114** :
-   - **Ancienne version** : L'ancienne version faisait explicitement référence au règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs, en intégrant les services sur crypto-actifs définis par ce règlement.
-   - **Nouvelle version** : La nouvelle version a supprimé toute mention de ce règlement européen. Cela pourrait indiquer une volonté de simplifier le texte ou de se dissocier des spécificités du règlement européen pour se concentrer uniquement sur la législation nationale.
-2. **Portée des services concernés** :
-   - **Ancienne version** : La mention des services sur crypto-actifs au sens du règlement (UE) 2023/1114 élargissait potentiellement le champ d'application de l'interdiction à des services définis par le droit européen.
-   - **Nouvelle version** : En supprimant cette référence, la nouvelle version restreint l'interdiction aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, ce qui pourrait limiter la portée de l'interdiction aux services spécifiquement définis par la législation nationale.
-3. **Conditions d'enregistrement et d'autorisation** :
-   - **Ancienne version** : L'ancienne version exigeait que les prestataires soient soit enregistrés par l'Autorité des marchés financiers, soit autorisés à fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114.
-   - **Nouvelle version** : La nouvelle version ne mentionne plus l'autorisation conformément à l'article 59 du règlement européen, se concentrant uniquement sur l'enregistrement préalable par l'Autorité des marchés financiers. Cela simplifie les conditions d'exercice en supprimant une double exigence potentielle.
-4. **Interdiction d'utilisation de dénominations trompeuses** :
-   - **Ancienne version** : L'interdiction s'appliquait à toute personne n'ayant pas la qualité de prestataire des services enregistré ou autorisé.
-   - **Nouvelle version** : L'interdiction s'applique désormais à toute personne n'ayant pas la qualité de prestataire des services mentionnés aux mêmes 1° et 4°. Cette modification pourrait restreindre l'interdiction à un sous-ensemble spécifique de services, bien que cela ne soit pas entièrement clair sans le texte complet de l'article L. 54-10-2.
-**Conséquences potentielles** :
-- La suppression des références au règlement européen pourrait simplifier la compréhension et l'application de la loi, mais pourrait également limiter la portée de l'interdiction aux seules définitions nationales.
-- La concentration sur l'enregistrement par l'Autorité des marchés financiers pourrait réduire les obligations administratives pour les prestataires de services.
-- La modification de l'interdiction d'utilisation de dénominations trompeuses pourrait nécessiter une clarification supplémentaire pour comprendre pleinement son impact.
-En conclusion, les modifications apportées semblent viser une simplification et une clarification des exigences légales, bien que certaines implications, notamment la portée exacte des services concernés, nécessitent une analyse plus approfondie du contexte législatif complet.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications significatives.
+Premièrement, la nouvelle version de l'article a supprimé toute référence explicite au règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cette suppression pourrait indiquer une volonté de simplifier le texte ou de le rendre plus autonome par rapport à la législation européenne spécifique sur les crypto-actifs.
+Deuxièmement, la nouvelle version restreint l'interdiction d'exercer la profession de prestataire de services uniquement aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, sans mentionner les services sur crypto-actifs au sens du règlement européen. Cela pourrait avoir pour effet de limiter l'application de cette interdiction à un cadre plus national, plutôt que de l'étendre aux définitions et exigences européennes.
+Troisièmement, la nouvelle version précise que l'interdiction d'utiliser une dénomination, une raison sociale, une publicité ou tout autre procédé trompeur s'applique spécifiquement aux prestataires des services mentionnés aux mêmes 1° et 4°. Cette précision pourrait viser à clarifier et restreindre les cas d'utilisation abusive de titres ou de qualifications, réduisant ainsi les risques de confusion pour le public.
+En conclusion, les modifications apportées semblent viser à simplifier et à clarifier le texte, en réduisant les références externes et en précisant les interdictions. Ces changements pourraient avoir pour conséquence de rendre la réglementation plus accessible et compréhensible, tout en recentrant son application sur un cadre national spécifique.</t>
         </is>
       </c>
     </row>
@@ -904,43 +893,45 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
-1. **Modification de l'autorité consultative** :
-   - Ancienne version : L'Autorité des marchés financiers (AMF) pouvait solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
-   - Nouvelle version : L'AMF peut solliciter l'avis de l'autorité nationale en charge de la sécurité des systèmes d'information. 
-   - **Analyse** : Ce changement précise et actualise l'autorité compétente en matière de sécurité des systèmes d'information, probablement pour refléter une réorganisation administrative ou une clarification des compétences.
-2. **Modification du seuil de détention de capital ou de droits de vote** :
-   - Ancienne version : Les personnes physiques détenant plus de 10 % du capital ou des droits de vote du prestataire devaient justifier de leur honorabilité et compétence.
-   - Nouvelle version : Ce seuil est porté à plus de 25 %.
-   - **Analyse** : L'augmentation du seuil de détention de capital ou de droits de vote de 10 % à 25 % pourrait viser à alléger les obligations de justification pour les petits actionnaires, concentrant ainsi les exigences de contrôle sur les actionnaires majoritaires ou significatifs.
-3. **Suppression de la référence à l'article L. 2321-1 du code de la défense** :
-   - Ancienne version : Référence explicite à l'article L. 2321-1 du code de la défense.
-   - Nouvelle version : Référence remplacée par une mention plus générale de l'autorité nationale en charge de la sécurité des systèmes d'information.
-   - **Analyse** : Cette modification pourrait viser à simplifier la rédaction et à éviter des références spécifiques qui pourraient devenir obsolètes ou nécessiter des mises à jour fréquentes.
-4. **Maintien des autres obligations et exigences** :
-   - Les autres obligations et exigences des prestataires agréés restent inchangées entre les deux versions.
-   - **Analyse** : La continuité des autres dispositions montre une stabilité réglementaire dans les exigences de base pour les prestataires de services sur actifs numériques, assurant ainsi une certaine prévisibilité et sécurité juridique pour les acteurs du marché.
-En conclusion, les modifications apportées à l'article visent principalement à actualiser et clarifier certaines dispositions, notamment en matière de sécurité des systèmes d'information et de seuil de détention de capital, tout en maintenant les exigences fondamentales pour les prestataires de services sur actifs numériques.</t>
+          <t>L'analyse des modifications apportées à l'article révèle plusieurs ajustements notables :
+1. **Autorité de vérification de la sécurité des systèmes d'information** :
+   - **Ancienne version** : L'Autorité des marchés financiers (AMF) pouvait solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
+   - **Nouvelle version** : L'AMF peut solliciter l'avis de l'autorité nationale en charge de la sécurité des systèmes d'information. Ce changement clarifie et potentiellement élargit l'autorité consultée pour la sécurité des systèmes d'information.
+2. **Seuil de détention de capital ou de droits de vote** :
+   - **Ancienne version** : Les personnes physiques détenant plus de 10 % du capital ou des droits de vote du prestataire devaient justifier de leur honorabilité et compétence.
+   - **Nouvelle version** : Ce seuil est relevé à plus de 25 %. Cela signifie que les exigences de justification d'honorabilité et de compétence s'appliquent désormais à un nombre potentiellement réduit de détenteurs de capital ou de droits de vote, ce qui pourrait alléger les obligations de certains investisseurs.
+3. **Terminologie et précision** :
+   - **Ancienne version** : Référence à l'article L. 2321-1 du code de la défense.
+   - **Nouvelle version** : Référence plus générale à l'autorité nationale en charge de la sécurité des systèmes d'information. Cette modification peut viser à simplifier et à rendre plus flexible la désignation de l'autorité compétente.
+4. **Autres modifications mineures** :
+   - Les autres sections de l'article semblent inchangées, à l'exception de quelques ajustements de formulation qui n'affectent pas substantiellement le contenu ou les obligations des prestataires.
+En conclusion, les modifications apportées visent principalement à clarifier certaines dispositions, à ajuster les seuils de détention de capital pour les obligations de justification d'honorabilité et de compétence, et à préciser les autorités compétentes en matière de sécurité des systèmes d'information. Ces ajustements peuvent avoir des implications pratiques pour les prestataires de services sur actifs numériques, notamment en termes de conformité et de gouvernance.</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement de nature technique et de précision, qui peuvent avoir des implications significatives pour les prestataires de services sur actifs numériques.
-1. **Modification de l'autorité consultative** :
+1. **Autorité de vérification de la sécurité des systèmes d'information** :
    - **Ancienne version** : L'Autorité des marchés financiers (AMF) pouvait solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
    - **Nouvelle version** : L'AMF peut solliciter l'avis de l'autorité nationale en charge de la sécurité des systèmes d'information.
-   - **Conséquence** : Cette modification précise l'autorité compétente en matière de sécurité des systèmes d'information, ce qui pourrait améliorer la clarté et l'efficacité des consultations.
+   - **Conséquence** : Cette modification clarifie et potentiellement élargit le champ des autorités compétentes en matière de sécurité des systèmes d'information, ce qui pourrait renforcer la rigueur des contrôles de sécurité.
 2. **Seuil de détention de capital ou de droits de vote** :
-   - **Ancienne version** : Les personnes physiques détenant plus de 10 % du capital ou des droits de vote du prestataire devaient justifier de leur honorabilité et compétence.
-   - **Nouvelle version** : Ce seuil est relevé à plus de 25 %.
-   - **Conséquence** : Cette augmentation du seuil pourrait réduire le nombre de personnes soumises à cette exigence, potentiellement simplifiant la gestion pour les prestataires tout en concentrant les vérifications sur les détenteurs de parts plus significatives.
-3. **Terminologie et précision linguistique** :
-   - **Ancienne version** : Utilisation de termes comme "l'autorité mentionnée à l'article L. 2321-1 du code de la défense".
-   - **Nouvelle version** : Utilisation de termes plus directs comme "l'autorité nationale en charge de la sécurité des systèmes d'information".
-   - **Conséquence** : Une terminologie plus précise et directe peut faciliter la compréhension et l'application des dispositions légales.
-4. **Autres ajustements mineurs** :
-   - Les autres modifications sont principalement des ajustements de formulation et de précision, sans changement substantiel des obligations des prestataires.
-En conclusion, les modifications apportées à l'article de loi visent principalement à clarifier et à préciser certaines dispositions, notamment en ce qui concerne les autorités compétentes et les seuils de détention de capital. Ces ajustements devraient améliorer la clarté réglementaire et potentiellement alléger certaines obligations administratives pour les prestataires, tout en maintenant un cadre rigoureux pour la sécurité et la transparence des services sur actifs numériques.</t>
+   - **Ancienne version** : Les personnes physiques détenant plus de 10 % du capital ou des droits de vote du prestataire doivent justifier de leur honorabilité et compétence.
+   - **Nouvelle version** : Ce seuil est porté à plus de 25 %.
+   - **Conséquence** : Cette augmentation du seuil pourrait réduire le nombre de personnes soumises à cette exigence, simplifiant ainsi les obligations de justification pour les prestataires.
+3. **Références légales et terminologiques** :
+   - **Ancienne version** : Référence à l'article L. 2321-1 du code de la défense.
+   - **Nouvelle version** : Référence à l'autorité nationale en charge de la sécurité des systèmes d'information.
+   - **Conséquence** : Cette mise à jour des références légales assure une meilleure adéquation avec les structures administratives actuelles et peut améliorer la clarté et l'application de la loi.
+4. **Traitement des réclamations** :
+   - **Ancienne version** : Les prestataires doivent assurer un traitement rapide des réclamations.
+   - **Nouvelle version** : Les prestataires doivent en assurer un traitement rapide.
+   - **Conséquence** : Cette légère modification de formulation n'affecte pas substantiellement les obligations des prestataires mais peut être vue comme une clarification linguistique.
+5. **Publication des politiques tarifaires et des informations transactionnelles** :
+   - **Ancienne version** : Les prestataires doivent rendre publiques leurs politiques tarifaires et les détails des transactions.
+   - **Nouvelle version** : Les obligations de publication restent inchangées.
+   - **Conséquence** : La continuité dans ces obligations souligne l'importance de la transparence pour les prestataires de services sur actifs numériques.
+En conclusion, les modifications apportées à l'article de loi visent principalement à clarifier et à actualiser certaines dispositions, tout en ajustant les seuils de détention de capital pour les obligations de justification. Ces changements peuvent simplifier certaines obligations pour les prestataires tout en renforçant les exigences de sécurité et de transparence. Les prestataires devront s'assurer de leur conformité avec ces nouvelles dispositions pour éviter tout risque de retrait d'agrément par l'AMF.</t>
         </is>
       </c>
     </row>
@@ -1044,21 +1035,17 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à cet article révèle un changement mineur mais significatif. La nouvelle version de l'article étend l'interdiction de tenir des comptes ou des livrets d'épargne anonymes aux personnes mentionnées aux 1° à 7° bis de l'article L. 561-2, alors que l'ancienne version se limitait aux personnes mentionnées aux 1° à 7°. 
-Cela signifie que le champ d'application de cette interdiction a été élargi pour inclure des catégories supplémentaires de personnes ou entités, spécifiquement celles mentionnées au 7° bis. Cette modification vise probablement à renforcer les mesures de lutte contre le blanchiment d'argent et le financement du terrorisme en incluant davantage de personnes ou d'entités sous cette interdiction.</t>
+          <t>L'analyse des modifications apportées à cet article révèle un changement dans la portée des personnes concernées par l'interdiction de tenir des comptes ou livrets d'épargne anonymes. 
+L'ancienne version de l'article faisait référence aux personnes mentionnées aux 1° à 7° de l'article L. 561-2. La nouvelle version étend cette référence aux personnes mentionnées aux 1° à 7° bis du même article. 
+Cela signifie que la nouvelle version inclut potentiellement des catégories supplémentaires de personnes ou entités qui sont désormais soumises à cette interdiction. Le terme "7° bis" suggère l'ajout d'une nouvelle catégorie ou sous-catégorie dans l'article L. 561-2, élargissant ainsi le champ d'application de la réglementation.
+En résumé, la modification vise à inclure davantage de personnes ou entités dans l'interdiction de tenir des comptes ou livrets d'épargne anonymes, renforçant ainsi les mesures de lutte contre le blanchiment d'argent et le financement du terrorisme.</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle une modification spécifique dans la référence aux personnes concernées. 
-Ancienne version : Les personnes mentionnées aux 1° à 7° de l'article L. 561-2.
-Nouvelle version : Les personnes mentionnées aux 1° à 7° bis de l'article L. 561-2.
-Le changement principal réside dans l'ajout de la mention "7° bis" dans la nouvelle version. Cela indique que la portée de l'interdiction de tenir des comptes ou livrets d'épargne anonymes a été étendue pour inclure une nouvelle catégorie de personnes ou entités, spécifiquement celles mentionnées au 7° bis de l'article L. 561-2.
-Conséquences :
-1. **Extension de la portée** : La modification élargit le champ d'application de l'interdiction, ce qui pourrait impliquer une volonté législative de renforcer les mesures de lutte contre l'anonymat dans les transactions financières.
-2. **Conformité accrue** : Les entités nouvellement incluses devront se conformer à cette interdiction, ce qui pourrait nécessiter des ajustements dans leurs pratiques de gestion des comptes et livrets d'épargne.
-3. **Renforcement de la transparence** : En élargissant les catégories de personnes concernées, la loi vise probablement à accroître la transparence financière et à prévenir les activités illicites telles que le blanchiment d'argent.
-En conclusion, la révision de l'article L. 561-2 par l'ajout de la mention "7° bis" renforce les obligations de transparence financière en élargissant l'interdiction de tenir des comptes ou livrets d'épargne anonymes à une nouvelle catégorie de personnes ou entités.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle une modification spécifique dans la référence aux personnes concernées. L'ancienne version mentionne les personnes aux 1° à 7° de l'article L. 561-2, tandis que la nouvelle version étend cette référence aux personnes aux 1° à 7° bis du même article.
+Le principal changement réside donc dans l'inclusion des personnes visées par le 7° bis, qui n'étaient pas couvertes par la version antérieure. Cette extension implique que les nouvelles catégories de personnes ajoutées par le 7° bis sont désormais également interdites de tenir des comptes ou livrets d'épargne anonymes.
+La portée de cette modification est significative car elle élargit le champ d'application de l'interdiction, renforçant ainsi les mesures de lutte contre l'anonymat dans les transactions financières. Les conséquences potentielles incluent une plus grande transparence et une meilleure traçabilité des fonds, ce qui peut contribuer à la prévention du blanchiment d'argent et du financement du terrorisme. Toutefois, sans le texte exact du 7° bis, il est difficile de déterminer précisément quelles nouvelles catégories de personnes sont concernées.</t>
         </is>
       </c>
     </row>
@@ -1162,16 +1149,23 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
-1. **Suppression des Prestataires de Services sur Crypto-Actifs** : La nouvelle version de l'article a supprimé les références spécifiques aux prestataires de services sur crypto-actifs, qui étaient auparavant mentionnés dans les points 1° quater, 7° bis, 7° quater, et 7° ter. Cela pourrait indiquer une révision ou une réorganisation de la réglementation applicable à ces entités.
-2. **Révision des Références Législatives** : Certaines références législatives ont été mises à jour. Par exemple, les articles L. 721-7 et L. 721-18 du code monétaire et financier ont été remplacés par les articles L. 711-2 et L. 712-4 respectivement. Cela peut refléter des modifications ou des renumérotations dans le code monétaire et financier.
-3. **Ajout et Suppression de Catégories** :
-   - **Ajout** : Les "conseillers en investissements participatifs" ont été ajoutés à la liste des entités assujetties (point 6°).
-   - **Suppression** : Les "commissaires-priseurs judiciaires" ont été ajoutés à la liste des professions juridiques assujetties (point 13°), tandis que les "commissaires de justice" ont été supprimés.
-4. **Clarification des Obligations** : La nouvelle version semble avoir simplifié et clarifié certaines obligations en supprimant des redondances et en consolidant les catégories. Par exemple, les références aux prestataires de services sur crypto-actifs ont été regroupées ou supprimées pour éviter les répétitions.
-5. **Réduction du Nombre de Points** : Le nombre total de points a été réduit de 20 à 19, ce qui peut indiquer une simplification ou une consolidation des catégories d'entités assujetties.
-6. **Mise à Jour des Seuils et Conditions** : Les seuils et conditions pour certaines activités, comme la négociation d'œuvres d'art et d'antiquités, restent inchangés, mais leur formulation a été légèrement modifiée pour plus de clarté.
-En résumé, les modifications apportées à l'article visent principalement à simplifier et clarifier les obligations des entités assujetties, à mettre à jour les références législatives, et à réorganiser certaines catégories pour éviter les redondances. Les changements reflètent également une possible révision de la réglementation applicable aux prestataires de services sur crypto-actifs.</t>
+          <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs changements notables :
+1. **Suppression de certaines catégories** : 
+   - Les prestataires de services sur crypto-actifs ayant leur siège social dans un autre État membre de l'Union européenne ou partie à l'Espace économique européen (ancien 1° quater) ont été supprimés.
+   - Les prestataires de services autorisés à fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114 (ancien 7° bis b) ont été supprimés.
+   - Les conseillers en investissements financiers, dépositaires centraux et sociétés de gestion de placements collectifs autorisés à fournir des services sur crypto-actifs (ancien 7° quater b) ont été supprimés.
+   - Les gestionnaires de crédits (ancien 20°) ont été supprimés.
+2. **Ajout de nouvelles catégories** :
+   - Les émetteurs de jetons ayant obtenu le visa mentionné à l'article L. 552-4 (nouveau 7° ter) ont été ajoutés.
+3. **Modifications de terminologie et de références légales** :
+   - Les références aux articles du code monétaire et financier ont été mises à jour pour refléter les modifications législatives récentes.
+   - Les termes "commissaires de justice" ont été remplacés par "huissiers de justice" et "commissaires-priseurs judiciaires" (nouveau 13°).
+4. **Clarifications et précisions** :
+   - La nouvelle version apporte des clarifications sur les catégories de personnes assujetties, notamment en ce qui concerne les intermédiaires en financement participatif et les conseillers en investissements participatifs.
+   - Les références aux articles spécifiques du code des assurances, du code de la sécurité sociale, du code de la mutualité, et du code de commerce ont été mises à jour pour plus de précision.
+5. **Réorganisation et simplification** :
+   - La nouvelle version réorganise certaines catégories pour une meilleure lisibilité et simplification, notamment en regroupant les catégories similaires et en supprimant les redondances.
+En conclusion, les modifications apportées visent à clarifier, simplifier et mettre à jour les références légales et les catégories de personnes assujetties aux obligations prévues par les dispositions des sections 2 à 7 du chapitre concerné. Ces changements reflètent les évolutions législatives récentes et les besoins de mise en conformité avec les règlements européens.</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1181,23 +1175,20 @@
    - La nouvelle version a supprimé les prestataires de services sur crypto-actifs ayant leur siège social dans un autre État membre de l'Union européenne ou partie à l'Espace économique européen (ancien 1° quater).
    - Les prestataires de services sur crypto-actifs au sens de l'article L. 525-8 ont également été retirés de cette catégorie.
    - Les prestataires de services autorisés à fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114 ont été supprimés (ancien 7° bis b).
-   - Les émetteurs de jetons ayant obtenu le visa mentionné à l'article L. 552-4 ont été réintroduits sous une nouvelle catégorie (nouveau 7° ter).
-2. **Réorganisation et clarification** :
+2. **Ajout et modification de catégories** :
+   - Les émetteurs de jetons ayant obtenu le visa mentionné à l'article L. 552-4 sont désormais inclus (nouveau 7° ter).
+   - Les prestataires agréés au titre de l'article L. 54-10-5 sont maintenus, mais la référence aux prestataires mentionnés au 7° bis a été clarifiée (nouveau 7° quater).
+3. **Réorganisation et clarification** :
    - Les références aux articles du code monétaire et financier ont été mises à jour pour refléter les modifications législatives récentes.
-   - Les institutions de retraite professionnelle supplémentaire mentionnées à l'article L. 942-1 du code de la sécurité sociale ont été maintenues, mais leur position dans la liste a été clarifiée.
-   - Les intermédiaires en financement participatif et les conseillers en investissements participatifs ont été regroupés pour une meilleure lisibilité (nouveau 6°).
-3. **Ajouts et précisions** :
-   - Les conseillers en investissements financiers et les intermédiaires habilités mentionnés à l'article L. 211-4 ont été explicitement inclus dans la nouvelle version.
-   - Les prestataires de services d'investissement ayant leur siège social dans un autre État membre de l'Union européenne sont maintenus, mais avec une référence mise à jour (nouveau 6° bis).
-   - Les personnes exerçant l'activité de domiciliation et les agents sportifs sont maintenus, mais avec des références législatives mises à jour.
-4. **Suppression de certaines catégories spécifiques** :
-   - Les gestionnaires de crédits (ancien 20°) ont été supprimés de la nouvelle version.
-   - Les caisses des règlements pécuniaires des avocats sont maintenues, mais leur position dans la liste a été ajustée.
-5. **Conséquences potentielles** :
-   - La suppression de certaines catégories, notamment les prestataires de services sur crypto-actifs, pourrait réduire la portée des obligations pour ces entités, simplifiant ainsi leur cadre réglementaire.
-   - La réorganisation et la clarification des catégories devraient améliorer la lisibilité et l'application de la loi, facilitant la compréhension pour les entités assujetties.
-   - Les ajouts et précisions apportés aux catégories existantes renforcent la couverture réglementaire, notamment en ce qui concerne les conseillers en investissements et les intermédiaires habilités.
-En conclusion, les modifications apportées à cet article de loi visent principalement à clarifier, réorganiser et mettre à jour les références législatives, tout en supprimant certaines catégories spécifiques pour simplifier le cadre réglementaire. Ces changements devraient améliorer la lisibilité et l'application de la loi, tout en ajustant la portée des obligations pour certaines entités.</t>
+   - Les institutions de retraite professionnelle supplémentaire et les mutuelles ou unions de retraite professionnelle supplémentaire sont maintenues, mais les références aux articles correspondants ont été ajustées pour plus de clarté.
+4. **Suppression de certaines entités** :
+   - Les gestionnaires de crédits (ancien 20°) ont été supprimés de la liste des personnes assujetties.
+5. **Mise à jour des références législatives** :
+   - Les références aux articles du code des assurances, du code de la sécurité sociale, et du code de la mutualité ont été actualisées pour correspondre aux nouvelles dispositions législatives.
+6. **Conséquences potentielles** :
+   - La suppression des prestataires de services sur crypto-actifs et des gestionnaires de crédits pourrait réduire la portée de la réglementation pour ces entités, potentiellement allégeant leurs obligations de conformité.
+   - L'inclusion des émetteurs de jetons avec visa pourrait renforcer la surveillance et la régulation des offres de jetons, augmentant la transparence et la protection des investisseurs.
+En conclusion, les modifications apportées visent principalement à clarifier et actualiser les références législatives, tout en ajustant la portée des entités assujetties aux obligations réglementaires. Ces changements reflètent une adaptation aux évolutions du marché financier et des technologies émergentes, notamment en matière de crypto-actifs.</t>
         </is>
       </c>
     </row>
@@ -1303,39 +1294,38 @@
         <is>
           <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
 1. **Extension des entités concernées** :
-   - L'ancienne version de l'article mentionnait les personnes énumérées aux 1° à 7° de l'article L. 561-2, ainsi que certaines entités spécifiques comme les compagnies financières holding et les entreprises mères de sociétés de financement. La nouvelle version étend cette liste pour inclure les personnes mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2. Cette extension élargit le champ des entités soumises aux obligations de déclaration et de partage d'informations.
+   - L'ancienne version de l'article mentionnait les personnes énumérées aux 1° à 7° de l'article L. 561-2, ainsi que certaines entités spécifiques comme les compagnies financières holding et les entreprises mères de sociétés de financement. La nouvelle version étend cette liste en incluant les personnes mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2. Cette extension élargit le champ des entités soumises aux obligations de déclaration et de partage d'informations.
 2. **Suppression de références spécifiques** :
-   - La nouvelle version a supprimé les références détaillées aux articles spécifiques du code des assurances, du code de la mutualité et du code de la sécurité sociale qui étaient présentes dans l'ancienne version. Cela simplifie la rédaction de l'article mais pourrait potentiellement réduire la précision des entités concernées.
+   - La nouvelle version de l'article a supprimé les références détaillées aux articles spécifiques du code des assurances, du code de la mutualité et du code de la sécurité sociale. Cela simplifie la rédaction de l'article mais pourrait potentiellement réduire la précision des entités concernées.
 3. **Ajout d'un nouveau paragraphe (III)** :
    - La nouvelle version introduit un paragraphe III qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15 réalisées par les entités du groupe. Cette disposition est soumise à des conditions spécifiques, notamment que les entreprises mères soient établies dans un État membre de l'Union européenne, un État partie à l'accord sur l'Espace économique européen, ou un pays tiers imposant des obligations équivalentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Cette inclusion renforce la coordination et la supervision au sein des groupes internationaux.
-4. **Maintien des conditions de protection des données** :
-   - Les conditions relatives à la protection des données personnelles et des libertés fondamentales, conformément aux articles 122 et 123 de la loi n° 78-17 du 6 janvier 1978, sont maintenues dans les deux versions. Cela assure une continuité dans la protection des droits des personnes concernées.
+4. **Maintien des conditions de partage d'informations** :
+   - Les conditions de partage d'informations (a, b, c, d) restent globalement inchangées dans les deux versions, garantissant que les informations échangées sont nécessaires, utilisées exclusivement à des fins de lutte contre le blanchiment de capitaux et le financement du terrorisme, et que le traitement des informations garantit un niveau de protection suffisant de la vie privée et des libertés et droits fondamentaux des personnes.
 5. **Décret en Conseil d'État** :
-   - Les deux versions prévoient qu'un décret en Conseil d'État précisera les modalités d'application de l'article, ce qui permet de détailler les aspects pratiques et opérationnels de ces dispositions.
-En conclusion, les modifications apportées à l'article visent principalement à élargir le champ des entités concernées par les obligations de déclaration et de partage d'informations, à simplifier la rédaction en supprimant certaines références spécifiques, et à renforcer la coordination au sein des groupes internationaux par l'introduction d'un nouveau paragraphe. Ces changements semblent destinés à améliorer l'efficacité de la lutte contre le blanchiment de capitaux et le financement du terrorisme tout en maintenant un niveau élevé de protection des données personnelles.</t>
+   - Les deux versions prévoient qu'un décret en Conseil d'État précise les modalités d'application de l'article, assurant ainsi une mise en œuvre réglementaire détaillée et conforme.
+En conclusion, les modifications apportées visent principalement à élargir le champ des entités concernées, à simplifier la rédaction de l'article, et à renforcer la coordination au sein des groupes internationaux en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Ces changements reflètent une volonté d'améliorer l'efficacité et la cohérence des obligations de déclaration et de partage d'informations au sein des groupes financiers.</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>La comparaison entre l'ancienne et la nouvelle version de l'article de loi révèle plusieurs modifications notables, tant sur le fond que sur la forme.
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables.
 1. **Extension des entités concernées** :
-   - **Ancienne version** : Les entités mentionnées étaient les personnes aux 1° à 7° de l'article L. 561-2, ainsi que diverses compagnies financières holding, entreprises mères de sociétés de financement, etc.
-   - **Nouvelle version** : Les entités concernées incluent désormais les personnes mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2. Cette extension élargit le champ des entités soumises à l'obligation de déclaration, ce qui pourrait renforcer la lutte contre le blanchiment de capitaux et le financement du terrorisme en incluant davantage d'acteurs.
-2. **Suppression de certaines références spécifiques** :
-   - **Ancienne version** : Faisait référence à des articles spécifiques du code des assurances, du code de la mutualité et du code de la sécurité sociale.
-   - **Nouvelle version** : Ces références spécifiques ont été supprimées, simplifiant ainsi le texte et potentiellement élargissant l'application de la loi à un plus grand nombre d'entités sans se limiter à des catégories précises.
+   - **Ancienne version** : Les entités mentionnées aux 1° à 7° de l'article L. 561-2 étaient concernées.
+   - **Nouvelle version** : Les entités mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2 sont désormais incluses. Cela élargit le champ des entités soumises à l'obligation de déclaration, augmentant ainsi la portée de la réglementation.
+2. **Suppression de références spécifiques** :
+   - **Ancienne version** : Faisait référence à des entités spécifiques telles que les compagnies financières holding, les entreprises mères de sociétés de financement, etc.
+   - **Nouvelle version** : Ces références spécifiques ont été supprimées, simplifiant ainsi la rédaction et potentiellement élargissant l'application à un plus grand nombre d'entités.
 3. **Ajout d'un nouveau paragraphe (III)** :
-   - **Nouvelle version** : Introduit un nouveau paragraphe III, qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15. Cette disposition est conditionnée par le fait que les entreprises mères soient établies dans un État membre de l'Union européenne, un État partie à l'accord sur l'Espace économique européen ou un pays tiers imposant des obligations équivalentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Cette inclusion vise à renforcer la coordination et la supervision au sein des groupes internationaux, améliorant ainsi l'efficacité des mesures de lutte contre le blanchiment et le financement du terrorisme.
+   - **Nouvelle version** : Introduit un nouveau paragraphe III qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15. Cela renforce la transparence et la supervision au sein des groupes, en particulier pour les entreprises mères établies dans des juridictions imposant des obligations équivalentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme.
 4. **Maintien des conditions de divulgation** :
-   - Les conditions de divulgation des informations (a, b, c, d) restent globalement inchangées dans les deux versions, garantissant que les informations échangées sont nécessaires, utilisées exclusivement à des fins de vigilance, et que leur traitement assure un niveau de protection suffisant de la vie privée et des libertés fondamentales.
-5. **Décret en Conseil d'État** :
-   - **Ancienne version** : Mentionnait un décret en Conseil d'État pour préciser les modalités d'application.
-   - **Nouvelle version** : Maintient cette disposition, assurant ainsi que les modalités pratiques seront définies de manière détaillée par voie réglementaire.
-**Portée et conséquences** :
-- **Élargissement du champ d'application** : L'inclusion de nouvelles catégories d'entités et la suppression de références spécifiques permettent une application plus large et potentiellement plus efficace de la loi.
-- **Renforcement de la supervision** : L'ajout du paragraphe III permet une meilleure supervision au sein des groupes internationaux, ce qui pourrait améliorer la détection et la prévention des activités illicites.
-- **Simplification et clarification** : La suppression de certaines références spécifiques et la réorganisation du texte contribuent à une meilleure lisibilité et compréhension de la loi.
-En conclusion, les modifications apportées visent à renforcer le cadre juridique de la lutte contre le blanchiment de capitaux et le financement du terrorisme, en élargissant le champ des entités concernées et en améliorant la coordination et la supervision au sein des groupes internationaux. Ces changements devraient contribuer à une application plus efficace et cohérente des obligations de vigilance.</t>
+   - Les conditions de divulgation des informations (a, b, c, d) restent globalement inchangées entre les deux versions, garantissant que les informations échangées sont nécessaires, utilisées exclusivement à des fins de lutte contre le blanchiment et le financement du terrorisme, et protégées conformément aux normes de protection des données.
+5. **Clarification et simplification** :
+   - La nouvelle version semble viser une simplification et une clarification du texte, en supprimant certaines références spécifiques et en ajoutant des dispositions pour les entreprises mères, ce qui pourrait faciliter la compréhension et l'application de la loi.
+**Conséquences potentielles** :
+- **Élargissement de la portée** : L'inclusion de nouvelles entités et la suppression de références spécifiques peuvent entraîner une application plus large de la loi.
+- **Renforcement de la supervision** : L'ajout du paragraphe III permet une meilleure supervision par les entreprises mères, ce qui pourrait améliorer la conformité au sein des groupes.
+- **Simplification administrative** : La simplification du texte peut réduire les ambiguïtés et faciliter la mise en œuvre par les entités concernées.
+En conclusion, les modifications apportées visent à élargir la portée de la réglementation, renforcer la supervision interne des groupes et simplifier la compréhension et l'application des obligations légales.</t>
         </is>
       </c>
     </row>
@@ -1439,19 +1429,18 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à cet article révèle une suppression notable. La nouvelle version de l'article a éliminé la référence spécifique aux "prestataires de services sur crypto-actifs au sens règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs". 
-Cette suppression a plusieurs implications juridiques :
-1. **Champ d'application restreint** : La nouvelle version de l'article ne mentionne plus explicitement les prestataires de services sur crypto-actifs. Cela pourrait signifier que ces prestataires ne sont plus soumis aux mêmes obligations de réponse aux demandes d'informations de l'Autorité des marchés financiers (AMF) et aux sanctions prévues en cas de non-respect.
-2. **Clarification ou omission** : La suppression pourrait être interprétée comme une volonté de clarifier le texte en se concentrant uniquement sur les prestataires de services mentionnés aux 1° à 4° de l'article L. 54-10-2. Alternativement, cela pourrait être une omission qui pourrait nécessiter une révision future pour réintégrer les prestataires de services sur crypto-actifs dans le champ d'application de l'article.
-3. **Impact sur la régulation des crypto-actifs** : En retirant cette référence, le législateur pourrait avoir l'intention de traiter la régulation des prestataires de services sur crypto-actifs dans un cadre législatif distinct, potentiellement plus adapté aux spécificités de ce secteur.
-En conclusion, la modification de l'article réduit son champ d'application en excluant explicitement les prestataires de services sur crypto-actifs, ce qui pourrait avoir des conséquences sur la régulation et le contrôle de ces acteurs par l'AMF.</t>
+          <t>L'analyse des modifications apportées à cet article révèle une suppression notable. La nouvelle version de l'article a éliminé la référence spécifique aux prestataires de services sur crypto-actifs au sens du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs.
+Cette suppression pourrait indiquer une volonté de simplifier le texte législatif en retirant une mention spécifique qui pourrait être redondante ou déjà couverte par d'autres dispositions légales. En effet, les prestataires de services sur crypto-actifs pourraient toujours être inclus dans les catégories générales des prestataires de services mentionnés aux 1° à 4° de l'article L. 54-10-2, rendant ainsi la mention spécifique superflue.
+En termes de conséquences juridiques, cette modification n'affecte pas les obligations des prestataires de services sur crypto-actifs, qui restent soumis aux mêmes exigences de coopération avec l'Autorité des marchés financiers. Toutefois, la suppression de cette référence spécifique pourrait avoir un impact sur la clarté et la précision de la législation pour les acteurs concernés, nécessitant une interprétation plus large des catégories de prestataires de services mentionnées.
+En conclusion, la modification vise probablement à simplifier et à harmoniser le texte législatif sans changer substantiellement les obligations des prestataires de services sur crypto-actifs.</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>L'analyse des versions antérieure et révisée de l'article de loi révèle une modification notable. La version antérieure incluait explicitement les prestataires de services sur crypto-actifs au sens du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cette mention spécifique a été supprimée dans la version révisée.
-La portée de cette modification est significative. En supprimant la référence explicite aux prestataires de services sur crypto-actifs, la nouvelle version de l'article semble restreindre le champ d'application de la sanction aux seuls prestataires des services mentionnés aux 1° à 4° de l'article L. 54-10-2. Cela pourrait potentiellement exclure certains acteurs du marché des crypto-actifs qui ne sont pas couverts par ces dispositions spécifiques, réduisant ainsi l'étendue des obligations de coopération avec l'Autorité des marchés financiers pour ces prestataires.
-Les conséquences de cette révision pourraient inclure une moindre capacité de l'Autorité des marchés financiers à obtenir des informations ou à exercer son contrôle sur certains prestataires de services sur crypto-actifs, ce qui pourrait affecter la surveillance et la régulation de ce secteur en pleine expansion. Il est crucial de surveiller comment cette modification sera interprétée et appliquée dans la pratique pour évaluer pleinement son impact sur la régulation des marchés financiers et des crypto-actifs.</t>
+La portée de cette modification est significative. En supprimant la référence explicite aux prestataires de services sur crypto-actifs, la nouvelle version de l'article semble restreindre le champ d'application de la sanction aux seuls prestataires des services mentionnés aux 1° à 4° de l'article L. 54-10-2. Cela pourrait potentiellement exclure certains acteurs du marché des crypto-actifs qui ne sont pas couverts par ces dispositions spécifiques.
+Les conséquences de cette modification pourraient être multiples. D'une part, cela pourrait réduire la capacité de l'Autorité des marchés financiers (AMF) à sanctionner certains prestataires de services sur crypto-actifs qui ne répondent pas à ses demandes d'informations ou qui entravent ses missions de contrôle. D'autre part, cela pourrait créer une incertitude juridique pour les acteurs du marché des crypto-actifs quant à leur obligation de se conformer aux demandes de l'AMF.
+En conclusion, la suppression de la référence explicite aux prestataires de services sur crypto-actifs dans la version révisée de l'article pourrait limiter l'étendue des sanctions applicables et engendrer des ambiguïtés quant à la régulation de ces acteurs par l'AMF.</t>
         </is>
       </c>
     </row>
@@ -1556,38 +1545,34 @@
       <c r="V9" t="inlineStr">
         <is>
           <t>L'analyse des modifications apportées à l'article révèle plusieurs changements significatifs :
-1. **Références législatives mises à jour** :
+1. **Références législatives et réglementaires** :
    - Les articles L. 54-10-3 à L. 54-10-5, initialement régis par la loi n° 2019-486 du 22 mai 2019, sont désormais régis par l'ordonnance n° 2020-1544 du 9 décembre 2020. Cette ordonnance renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques.
-   - L'article L. 572-24 est également soumis à cette ordonnance, tandis que les articles L. 572-23, L. 572-25 et L. 572-26 restent sous la loi n° 2019-486.
+   - L'article L. 572-24, initialement sous la loi n° 2019-486, est également régi par l'ordonnance n° 2020-1544.
 2. **Adaptations spécifiques pour la Nouvelle-Calédonie** :
-   - Pour l'application de l'article L. 54-10-3, certaines phrases et alinéas sont supprimés, notamment les références à d'autres États membres de l'Union européenne ou parties à l'accord sur l'Espace économique européen.
-   - Les références aux règlements européens sont adaptées pour se conformer aux règlements mentionnés à l'article L. 713-16.
-   - Les références au code de commerce sont remplacées par les dispositions équivalentes applicables localement.
-3. **Conversion des montants en euros en francs CFP** :
-   - Les montants en euros mentionnés dans l'article L. 572-23 sont convertis en francs CFP (1 790 000 francs CFP pour 15 000 euros et 3 580 000 francs CFP pour 30 000 euros).
-   - De même, le montant de 7 500 euros dans l'article L. 572-26 est converti en 895 000 francs CFP.
-Ces modifications montrent une adaptation des dispositions législatives pour mieux correspondre au contexte juridique et économique de la Nouvelle-Calédonie, en particulier en ce qui concerne la lutte contre le blanchiment de capitaux et le financement du terrorisme, ainsi que l'ajustement des montants financiers aux réalités locales.</t>
+   - Pour l'application de l'article L. 54-10-3, certaines mentions spécifiques à l'Union européenne sont supprimées, ce qui indique une adaptation locale des dispositions européennes.
+   - Les références aux règlements européens dans les articles L. 54-10-3 et L. 54-10-5 sont remplacées par des références locales, spécifiquement à l'article L. 713-16.
+   - Les références au code de commerce sont remplacées par des dispositions équivalentes applicables localement, ce qui montre une volonté d'adapter les textes aux réalités juridiques locales.
+3. **Conversion des montants financiers** :
+   - Les montants en euros mentionnés dans les articles L. 572-23 et L. 572-26 sont convertis en francs CFP, la monnaie utilisée en Nouvelle-Calédonie. Par exemple, 15 000 euros deviennent 1 790 000 francs CFP, et 30 000 euros deviennent 3 580 000 francs CFP. Cette conversion assure la pertinence et l'applicabilité des sanctions financières dans le contexte local.
+4. **Suppression et remplacement de termes** :
+   - Les mots “la Banque de France” sont remplacés par “l'Institut d'émission d'outre-mer” pour l'application du dernier alinéa de l'article L. 54-10-5, ce qui est maintenu dans la nouvelle version.
+En résumé, les modifications apportées visent principalement à adapter les dispositions législatives et réglementaires aux spécificités locales de la Nouvelle-Calédonie, en tenant compte des nouvelles régulations introduites par l'ordonnance de 2020 et en assurant la conversion des montants financiers dans la monnaie locale. Ces ajustements permettent une application plus cohérente et efficace des textes de loi dans ce territoire d'outre-mer.</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs changements significatifs entre l'ancienne et la nouvelle version.
-1. **Révision des articles applicables et de leurs sources législatives** :
-   - **Ancienne version** : Les articles L. 54-10-1 à L. 54-10-5 et L. 572-23 à L. 572-26 étaient applicables en Nouvelle-Calédonie, tous issus de la loi n° 2019-486 du 22 mai 2019 relative à la croissance et la transformation des entreprises.
-   - **Nouvelle version** : Les articles L. 54-10-1 et L. 54-10-2 restent issus de la loi n° 2019-486. Cependant, les articles L. 54-10-3 à L. 54-10-5 sont désormais issus de l'ordonnance n° 2020-1544 du 9 décembre 2020, qui renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques. De plus, l'article L. 572-24 est également issu de cette ordonnance, tandis que les articles L. 572-23, L. 572-25 et L. 572-26 restent issus de la loi n° 2019-486.
+          <t>L'analyse des évolutions réglementaires entre l'ancienne et la nouvelle version de l'article de loi révèle plusieurs modifications significatives :
+1. **Modification des références législatives** :
+   - Les articles L. 54-10-3 à L. 54-10-5, initialement issus de la loi n° 2019-486 du 22 mai 2019, sont désormais issus de l'ordonnance n° 2020-1544 du 9 décembre 2020. Cette ordonnance renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques.
+   - De même, l'article L. 572-24 est maintenant issu de cette ordonnance, alors qu'il était précédemment couvert par la loi n° 2019-486.
 2. **Adaptations spécifiques pour la Nouvelle-Calédonie** :
-   - **Ancienne version** : Seule une adaptation était mentionnée, remplaçant "la Banque de France" par "l'Institut d'émission d'outre-mer" pour l'application du dernier alinéa de l'article L. 54-10-5.
-   - **Nouvelle version** : Plusieurs adaptations sont introduites :
-     1. Suppression de certaines mentions dans l'article L. 54-10-3 concernant l'Union européenne.
-     2. Remplacement des références aux règlements européens par des références locales pour les articles L. 54-10-3 et L. 54-10-5.
-     3. Substitution des références au code de commerce par des dispositions locales équivalentes pour les articles L. 54-10-3 et L. 54-10-5.
-     4. Conversion des montants en euros en francs CFP pour l'article L. 572-23.
-     5. Conversion des montants en euros en francs CFP pour l'article L. 572-26.
-**Portée et conséquences des changements** :
-- **Harmonisation et actualisation** : La nouvelle version intègre des dispositions plus récentes et spécifiques à la lutte contre le blanchiment de capitaux et le financement du terrorisme, reflétant une mise à jour législative importante.
-- **Adaptation locale** : Les nombreuses adaptations spécifiques à la Nouvelle-Calédonie montrent une volonté d'assurer que les dispositions législatives soient pertinentes et applicables dans le contexte local, notamment en matière de montants financiers et de références légales.
-- **Clarté et précision** : Les modifications apportées visent à clarifier et à préciser les dispositions applicables, en supprimant des références non pertinentes et en adaptant les termes et montants aux réalités locales.
-En conclusion, la révision de cet article de loi montre une mise à jour significative et une adaptation accrue aux spécificités de la Nouvelle-Calédonie, renforçant ainsi la pertinence et l'efficacité des dispositions législatives dans ce territoire.</t>
+   - Pour l'application de l'article L. 54-10-3, certaines mentions relatives à l'Union européenne et à l'Espace économique européen sont supprimées, ce qui pourrait indiquer une adaptation aux spécificités locales de la Nouvelle-Calédonie.
+   - Les références aux règlements européens sont remplacées par des références spécifiques à l'article L. 713-16, ce qui pourrait viser à harmoniser les dispositions locales avec les règlements européens pertinents.
+   - Les références au code de commerce sont remplacées par les dispositions équivalentes applicables localement, assurant ainsi une cohérence avec le cadre juridique de la Nouvelle-Calédonie.
+3. **Conversion des montants financiers** :
+   - Les montants en euros mentionnés dans l'article L. 572-23 sont convertis en francs CFP, ce qui est essentiel pour la clarté et l'application locale des sanctions financières.
+   - De même, les montants en euros dans l'article L. 572-26 sont également convertis en francs CFP.
+Ces modifications montrent une volonté d'adapter les dispositions législatives aux spécificités économiques et juridiques de la Nouvelle-Calédonie, tout en renforçant le cadre de lutte contre le blanchiment de capitaux et le financement du terrorisme. Les conversions monétaires et les adaptations spécifiques aux règlements européens et au code de commerce local sont des ajustements nécessaires pour assurer une application efficace et cohérente de la loi dans ce territoire.</t>
         </is>
       </c>
     </row>
@@ -1691,30 +1676,39 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs ajustements notables :
-1. **Suppression de Références Spécifiques** : La nouvelle version a supprimé certaines références spécifiques à des ordonnances et lois antérieures, notamment celles concernant les articles L. 561-27, L. 561-29-1, et L. 561-31-2. Cela pourrait indiquer une simplification ou une mise à jour des références législatives pour refléter les modifications récentes du cadre juridique.
-2. **Harmonisation des Textes** : Les articles L. 561-2, L. 561-7, L. 561-14, et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544, ce qui montre une harmonisation des textes pour renforcer le cadre de lutte contre le blanchiment de capitaux et le financement du terrorisme, notamment en ce qui concerne les actifs numériques.
-3. **Suppression de Dispositions** : La suppression du point 7° du III, qui concernait des dispositions spécifiques à l'article L. 561-31-2, pourrait indiquer une révision ou une suppression de certaines obligations ou adaptations spécifiques à la Nouvelle-Calédonie.
-4. **Clarification des Références** : Les références aux règlements européens portant mesures restrictives ont été remplacées par des références plus générales aux règlements européens mentionnés à l'article L. 713-16. Cela pourrait viser à clarifier et simplifier les renvois législatifs pour une meilleure compréhension et application locale.
-5. **Maintien des Adaptations Locales** : Les adaptations spécifiques à la Nouvelle-Calédonie, telles que la conversion des valeurs monétaires en francs CFP et les références aux autorités locales compétentes, ont été maintenues, assurant ainsi que les dispositions législatives restent pertinentes et applicables dans le contexte local.
-6. **Mise à Jour des Références Juridiques** : La nouvelle version met à jour les références aux articles et aux ordonnances pour refléter les modifications législatives récentes, assurant ainsi que le texte est à jour avec les dernières évolutions du cadre juridique.
-En résumé, les modifications apportées visent principalement à harmoniser les textes législatifs, à supprimer des références obsolètes ou spécifiques, et à maintenir les adaptations nécessaires pour l'application locale en Nouvelle-Calédonie. Ces changements reflètent une volonté de simplification et de mise à jour du cadre juridique pour une meilleure efficacité et clarté.</t>
+          <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs changements notables :
+1. **Références législatives et ordonnances** :
+   - La nouvelle version a supprimé les références spécifiques à certaines lois et ordonnances, notamment celles de la loi n° 2021-1308 du 8 octobre 2021 et de l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie la lecture et l'application de l'article en se concentrant sur les ordonnances et lois les plus pertinentes.
+2. **Applicabilité des articles** :
+   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui unifie et clarifie les références législatives.
+3. **Suppression de dispositions spécifiques** :
+   - La nouvelle version a supprimé le point 7° du III, ce qui pourrait indiquer une simplification ou une suppression de dispositions jugées non nécessaires ou redondantes.
+4. **Adaptations locales** :
+   - Les adaptations locales restent largement inchangées, mais la nouvelle version a supprimé certaines références spécifiques aux règlements européens, ce qui pourrait indiquer une volonté de simplifier l'application locale en Nouvelle-Calédonie.
+5. **Clarifications et simplifications** :
+   - La nouvelle version a supprimé plusieurs phrases et références spécifiques, ce qui semble viser à simplifier et clarifier le texte pour une meilleure compréhension et application.
+En résumé, les modifications apportées visent principalement à simplifier et clarifier l'article, en supprimant des références spécifiques et en unifiant les textes applicables. Cela devrait faciliter l'application des dispositions en Nouvelle-Calédonie, tout en maintenant les adaptations nécessaires pour tenir compte des spécificités locales.</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement dans la section I. Voici les principaux changements et leurs implications :
-1. **Références aux textes législatifs et réglementaires** :
-   - La nouvelle version simplifie les références aux articles applicables en Nouvelle-Calédonie. Par exemple, les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais tous applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui clarifie et uniformise les références législatives.
-2. **Suppression de certaines références** :
-   - La nouvelle version a supprimé la mention des articles L. 561-29-1 et L. 561-31-2, qui étaient présents dans l'ancienne version. Cela pourrait indiquer une révision ou une abrogation de ces articles spécifiques dans le contexte de la Nouvelle-Calédonie.
-3. **Adaptations locales** :
-   - Les adaptations locales restent largement inchangées, mais la suppression du point 7° dans la section III de la nouvelle version indique une simplification ou une suppression de certaines adaptations spécifiques. Cela pourrait réduire la complexité de l'application locale de la loi.
-4. **Clarification des termes et des références** :
-   - La nouvelle version continue de remplacer les références aux entités et aux valeurs monétaires par leurs équivalents locaux, ce qui est essentiel pour l'application pratique de la loi en Nouvelle-Calédonie. Par exemple, les valeurs en euros sont converties en francs CFP, et les références aux autorités locales sont maintenues.
-5. **Suppression de certaines mentions européennes** :
-   - Plusieurs mentions relatives à l'Union européenne et à l'Espace économique européen ont été supprimées, ce qui pourrait indiquer une volonté de rendre la législation plus autonome et adaptée au contexte local de la Nouvelle-Calédonie.
-En conclusion, la révision de cet article de loi vise principalement à simplifier et à clarifier les références législatives et réglementaires applicables en Nouvelle-Calédonie, tout en maintenant les adaptations locales nécessaires. Les suppressions de certaines références et mentions européennes semblent orientées vers une meilleure adéquation avec le contexte juridique et administratif local. Ces modifications devraient faciliter l'application et l'interprétation de la loi par les autorités locales et les parties concernées.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement dans les références législatives et les adaptations spécifiques à la Nouvelle-Calédonie. Voici les principaux changements et leurs implications :
+1. **Références législatives mises à jour** :
+   - La nouvelle version intègre les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicables aux actifs numériques. Cela remplace les références antérieures à la loi n° 2021-1308 du 8 octobre 2021 pour certains articles.
+   - Les articles L. 561-36, L. 561-36-2, L. 561-36-3, L. 561-37, L. 561-38, L. 562-3 à L. 562-9, L. 562-11, L. 562-12 et L. 574-3 sont maintenus dans leur rédaction résultant de l'ordonnance n° 2020-1342 du 4 novembre 2020.
+2. **Suppression de certaines dispositions** :
+   - Le point 7° du III, qui concernait l'application de l'article L. 561-31-2, a été supprimé. Cela pourrait indiquer une simplification ou une révision des dispositions relatives à cet article.
+3. **Adaptations spécifiques à la Nouvelle-Calédonie** :
+   - Les références aux règlements européens portant mesures restrictives pris en application des articles 75 ou 215 du traité sur le fonctionnement de l'Union européenne sont remplacées par des références aux règlements européens mentionnés à l'article L. 713-16. Cela montre une adaptation plus précise aux règlements européens pertinents pour la Nouvelle-Calédonie.
+   - Les valeurs monétaires exprimées en euros continuent d'être remplacées par leur contre-valeur en francs CFP, ce qui est une adaptation nécessaire pour la monnaie locale.
+4. **Clarifications et précisions** :
+   - Les références aux autorités locales et aux dispositions applicables localement sont maintenues, ce qui assure que les adaptations législatives tiennent compte des spécificités locales en matière de contrôle et de sanction des professions réglementées.
+   - Les modifications apportées aux articles L. 561-46 et L. 561-47, notamment la suppression des références à l'espace économique européen et l'adaptation des références aux tribunaux locaux, renforcent l'application locale des dispositions législatives.
+**Conséquences et portée** :
+- **Renforcement de la lutte contre le blanchiment et le financement du terrorisme** : Les mises à jour législatives et les références aux ordonnances récentes montrent un effort continu pour aligner la législation de la Nouvelle-Calédonie avec les normes internationales et européennes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme.
+- **Adaptation locale** : Les nombreuses adaptations spécifiques à la Nouvelle-Calédonie assurent que la législation est pertinente et applicable dans le contexte local, ce qui est crucial pour l'efficacité des mesures législatives.
+- **Simplification et clarification** : La suppression de certaines dispositions et la mise à jour des références législatives contribuent à une meilleure clarté et à une simplification de la législation applicable, ce qui peut faciliter la compréhension et l'application par les autorités locales et les parties concernées.
+En conclusion, les modifications apportées à cet article de loi visent principalement à mettre à jour les références législatives, à adapter les dispositions aux spécificités locales de la Nouvelle-Calédonie, et à renforcer le cadre juridique en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Ces changements devraient améliorer l'efficacité et la pertinence de la législation dans ce territoire.</t>
         </is>
       </c>
     </row>
@@ -1819,37 +1813,34 @@
       <c r="V11" t="inlineStr">
         <is>
           <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs changements notables :
-1. **Suppression de Références Spécifiques** :
-   - La nouvelle version a supprimé les références spécifiques à la loi n° 2021-1308 du 8 octobre 2021 et à l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie le texte en se concentrant sur les ordonnances et lois plus récentes et pertinentes.
-2. **Harmonisation des Références** :
-   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais tous mentionnés dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020. Cela montre une volonté d'harmoniser les références législatives pour une meilleure cohérence.
-3. **Suppression de Dispositions** :
-   - Le point 7° du III a été supprimé dans la nouvelle version. Cela pourrait indiquer une simplification ou une suppression de dispositions jugées non nécessaires ou redondantes.
-4. **Clarification des Adaptations Locales** :
-   - Les adaptations locales restent largement inchangées, mais la suppression de certaines références européennes (comme celles aux règlements européens portant mesures restrictives) montre une volonté de clarifier et de simplifier l'application locale des dispositions.
-5. **Maintien des Adaptations Monétaires** :
-   - Les valeurs monétaires exprimées en euros continuent d'être remplacées par leur contre-valeur en francs CFP, ce qui est essentiel pour l'application locale en Polynésie française.
-6. **Références aux Autorités Locales** :
-   - Les références aux autorités locales exerçant le pouvoir de contrôle et de sanction sur certaines professions sont maintenues, assurant ainsi que les adaptations locales restent pertinentes et applicables.
-En résumé, les modifications apportées visent principalement à simplifier et à harmoniser les références législatives, tout en maintenant les adaptations nécessaires pour l'application locale en Polynésie française. La suppression de certaines dispositions et références spécifiques montre une volonté de rendre le texte plus clair et plus cohérent.</t>
+1. **Références législatives et ordonnances** :
+   - La nouvelle version a supprimé les références spécifiques à certaines lois et ordonnances, notamment celles de la loi n° 2021-1308 du 8 octobre 2021 et de l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie la rédaction et peut indiquer une volonté de se concentrer sur des textes plus récents ou plus pertinents.
+2. **Applicabilité des articles** :
+   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui montre une mise à jour pour inclure des dispositions plus récentes concernant la lutte contre le blanchiment de capitaux et le financement du terrorisme.
+3. **Suppression de certaines dispositions** :
+   - Le point 7° du III a été supprimé dans la nouvelle version. Cela pourrait indiquer que les dispositions précédemment mentionnées ne sont plus jugées nécessaires ou pertinentes pour l'application en Polynésie française.
+4. **Clarification et simplification** :
+   - La nouvelle version semble avoir simplifié certaines formulations et supprimé des redondances, ce qui peut faciliter la compréhension et l'application des dispositions légales.
+5. **Adaptations locales** :
+   - Les adaptations locales restent largement inchangées, mais la suppression de certaines références européennes et la clarification des termes montrent une volonté d'adapter plus précisément les textes aux réalités locales de la Polynésie française.
+En résumé, les modifications apportées visent principalement à actualiser les références législatives, simplifier la rédaction, et supprimer des dispositions jugées non nécessaires, tout en maintenant une adaptation locale cohérente. Ces changements reflètent une volonté d'aligner les textes sur les évolutions législatives récentes et de faciliter leur application en Polynésie française.</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs ajustements notables entre l'ancienne et la nouvelle version. Voici les principaux changements, leur portée et leurs éventuelles conséquences :
-1. **Références législatives et ordonnances** :
-   - La nouvelle version a supprimé les références spécifiques à certaines lois et ordonnances, notamment la loi n° 2021-1308 du 8 octobre 2021 et l'ordonnance n° 2021-958 du 19 juillet 2021. Cela pourrait indiquer une volonté de simplification ou de mise à jour des références législatives pour une meilleure clarté et cohérence.
-2. **Applicabilité des articles** :
-   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020. Cela montre une harmonisation des textes applicables en Polynésie française avec les évolutions récentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme.
-3. **Suppression de certaines dispositions** :
-   - La suppression du point 7° dans la section III de la nouvelle version indique que certaines dispositions spécifiques ne sont plus jugées nécessaires ou pertinentes pour l'application en Polynésie française. Cela pourrait simplifier l'application de la loi et réduire les ambiguïtés.
-4. **Adaptations locales** :
-   - Les adaptations locales restent largement inchangées, avec des références aux autorités locales et aux valeurs monétaires en francs CFP. Cela continue de garantir que les dispositions législatives sont adaptées au contexte spécifique de la Polynésie française.
-5. **Suppression de références à l'Union européenne** :
-   - Plusieurs références aux règlements européens et aux États membres de l'Union européenne ont été supprimées. Cela pourrait refléter une volonté de rendre les dispositions plus autonomes et moins dépendantes des régulations européennes, ce qui est pertinent pour un territoire d'outre-mer.
-6. **Clarifications et simplifications** :
-   - La nouvelle version apporte des clarifications sur les termes et les références, par exemple, en remplaçant les termes relatifs aux règlements européens par des termes plus généraux ou locaux. Cela peut améliorer la compréhension et l'application des dispositions légales par les autorités locales.
-En conclusion, les modifications apportées visent principalement à actualiser les références législatives, simplifier certaines dispositions, et adapter les textes aux spécificités locales de la Polynésie française. Ces changements devraient faciliter l'application de la loi et renforcer l'efficacité des mesures de lutte contre le blanchiment de capitaux et le financement du terrorisme dans ce territoire.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement dans les références législatives et les adaptations spécifiques à la Polynésie française.
+1. **Références législatives mises à jour** :
+   - La nouvelle version intègre les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui n'était pas le cas dans l'ancienne version. Cela indique une harmonisation avec les dispositions récentes concernant la lutte contre le blanchiment de capitaux et le financement du terrorisme applicables aux actifs numériques.
+   - Les articles L. 561-36, L. 561-36-2, L. 561-36-3, L. 561-37, L. 561-38, L. 562-3 à L. 562-9, L. 562-11, L. 562-12 et L. 574-3 sont maintenus dans leur rédaction résultant de l'ordonnance n° 2020-1342 du 4 novembre 2020, ce qui reste inchangé.
+2. **Suppression de certaines dispositions** :
+   - La nouvelle version a supprimé le point 7° du III, qui concernait les adaptations spécifiques pour l'application de l'article L. 561-31-2. Cela pourrait indiquer une simplification ou une révision des adaptations nécessaires pour la Polynésie française.
+3. **Harmonisation des termes et références** :
+   - Les références aux règlements européens et aux traités de l'Union européenne ont été systématiquement remplacées par des termes plus génériques ou par des références aux dispositions locales équivalentes. Par exemple, les mots "des règlements européens portant mesures restrictives pris en application des articles 75 ou 215 du traité sur le fonctionnement de l'Union européenne" sont remplacés par "des règlements européens mentionnés à l'article L. 713-16".
+   - Les références aux autorités locales compétentes ont été maintenues, ce qui assure que les adaptations locales sont respectées.
+4. **Conséquences et portée des modifications** :
+   - Les modifications apportées visent principalement à actualiser les références législatives et à simplifier les adaptations spécifiques à la Polynésie française. Cela pourrait améliorer la clarté et l'application des dispositions légales dans ce territoire.
+   - La suppression de certaines dispositions spécifiques pourrait indiquer une volonté de réduire la complexité administrative et de faciliter l'application uniforme des lois.
+En conclusion, les modifications apportées à cet article de loi semblent viser une meilleure harmonisation avec les récentes évolutions législatives et une simplification des adaptations locales, tout en maintenant les spécificités nécessaires pour la Polynésie française. Ces changements devraient contribuer à une application plus efficace et cohérente des dispositions relatives à la lutte contre le financement du terrorisme et le blanchiment des capitaux.</t>
         </is>
       </c>
     </row>
